--- a/raw_data/20200818_saline/20200818_Sensor1_Test_25.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_25.xlsx
@@ -1,2971 +1,3387 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80055E7F-423D-43B0-8B05-AAFFEF4C233C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>21787.274388</v>
+        <v>21787.274388000002</v>
       </c>
       <c r="B2" s="1">
-        <v>6.052021</v>
+        <v>6.0520209999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>896.031000</v>
+        <v>896.03099999999995</v>
       </c>
       <c r="D2" s="1">
-        <v>-200.408000</v>
+        <v>-200.40799999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>21797.659585</v>
+        <v>21797.659585000001</v>
       </c>
       <c r="G2" s="1">
-        <v>6.054905</v>
+        <v>6.0549049999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>914.001000</v>
+        <v>914.00099999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.389000</v>
+        <v>-169.38900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>21808.133108</v>
+        <v>21808.133108000002</v>
       </c>
       <c r="L2" s="1">
-        <v>6.057815</v>
+        <v>6.0578149999999997</v>
       </c>
       <c r="M2" s="1">
-        <v>937.340000</v>
+        <v>937.34</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.378000</v>
+        <v>-120.378</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>21818.638406</v>
+        <v>21818.638405999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>6.060733</v>
+        <v>6.0607329999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>943.964000</v>
+        <v>943.96400000000006</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.807000</v>
+        <v>-103.807</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>21829.218041</v>
       </c>
       <c r="V2" s="1">
-        <v>6.063672</v>
+        <v>6.0636720000000004</v>
       </c>
       <c r="W2" s="1">
-        <v>950.482000</v>
+        <v>950.48199999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.611300</v>
+        <v>-88.6113</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>21839.940057</v>
       </c>
       <c r="AA2" s="1">
-        <v>6.066650</v>
+        <v>6.0666500000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>957.589000</v>
+        <v>957.58900000000006</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.033600</v>
+        <v>-77.033600000000007</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>21850.374912</v>
+        <v>21850.374911999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>6.069549</v>
+        <v>6.0695490000000003</v>
       </c>
       <c r="AG2" s="1">
-        <v>962.322000</v>
+        <v>962.322</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.987600</v>
+        <v>-74.9876</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>21860.795838</v>
+        <v>21860.795837999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>6.072443</v>
+        <v>6.0724429999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>969.513000</v>
+        <v>969.51300000000003</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.884800</v>
+        <v>-79.884799999999998</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>21871.676111</v>
+        <v>21871.676111000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.075466</v>
+        <v>6.0754659999999996</v>
       </c>
       <c r="AQ2" s="1">
-        <v>977.661000</v>
+        <v>977.66099999999994</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.675800</v>
+        <v>-91.675799999999995</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>21882.693713</v>
+        <v>21882.693713000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.078526</v>
+        <v>6.0785260000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>987.593000</v>
+        <v>987.59299999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.598000</v>
+        <v>-109.598</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>21894.102232</v>
+        <v>21894.102232000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.081695</v>
+        <v>6.0816949999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>995.967000</v>
+        <v>995.96699999999998</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.384000</v>
+        <v>-125.384</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>21904.855957</v>
       </c>
       <c r="BE2" s="1">
-        <v>6.084682</v>
+        <v>6.0846819999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1035.060000</v>
+        <v>1035.06</v>
       </c>
       <c r="BG2" s="1">
-        <v>-197.933000</v>
+        <v>-197.93299999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>21915.514354</v>
+        <v>21915.514353999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.087643</v>
+        <v>6.0876429999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1102.430000</v>
+        <v>1102.43</v>
       </c>
       <c r="BL2" s="1">
-        <v>-315.417000</v>
+        <v>-315.41699999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>21925.825320</v>
+        <v>21925.82532</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.090507</v>
+        <v>6.0905069999999997</v>
       </c>
       <c r="BP2" s="1">
-        <v>1211.550000</v>
+        <v>1211.55</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-500.322000</v>
+        <v>-500.322</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>21936.971419</v>
+        <v>21936.971419000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.093603</v>
+        <v>6.0936029999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1334.390000</v>
+        <v>1334.39</v>
       </c>
       <c r="BV2" s="1">
-        <v>-703.279000</v>
+        <v>-703.279</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>21947.644827</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.096568</v>
+        <v>6.0965680000000004</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1471.270000</v>
+        <v>1471.27</v>
       </c>
       <c r="CA2" s="1">
-        <v>-919.649000</v>
+        <v>-919.649</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>21959.060432</v>
+        <v>21959.060431999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.099739</v>
+        <v>6.0997389999999996</v>
       </c>
       <c r="CE2" s="1">
-        <v>1832.320000</v>
+        <v>1832.32</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1433.060000</v>
+        <v>-1433.06</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>21787.630510</v>
+        <v>21787.630509999999</v>
       </c>
       <c r="B3" s="1">
-        <v>6.052120</v>
+        <v>6.0521200000000004</v>
       </c>
       <c r="C3" s="1">
-        <v>896.064000</v>
+        <v>896.06399999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>-200.530000</v>
+        <v>-200.53</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>21798.035553</v>
+        <v>21798.035553000002</v>
       </c>
       <c r="G3" s="1">
-        <v>6.055010</v>
+        <v>6.0550100000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>913.715000</v>
+        <v>913.71500000000003</v>
       </c>
       <c r="I3" s="1">
-        <v>-169.460000</v>
+        <v>-169.46</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>21808.518500</v>
+        <v>21808.518499999998</v>
       </c>
       <c r="L3" s="1">
-        <v>6.057922</v>
+        <v>6.0579219999999996</v>
       </c>
       <c r="M3" s="1">
-        <v>937.502000</v>
+        <v>937.50199999999995</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.965000</v>
+        <v>-119.965</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>21819.372795</v>
+        <v>21819.372794999999</v>
       </c>
       <c r="Q3" s="1">
         <v>6.060937</v>
       </c>
       <c r="R3" s="1">
-        <v>943.965000</v>
+        <v>943.96500000000003</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.792000</v>
+        <v>-103.792</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>21829.934759</v>
       </c>
       <c r="V3" s="1">
-        <v>6.063871</v>
+        <v>6.0638709999999998</v>
       </c>
       <c r="W3" s="1">
-        <v>950.539000</v>
+        <v>950.53899999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.692300</v>
+        <v>-88.692300000000003</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>21840.291721</v>
+        <v>21840.291721000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>6.066748</v>
+        <v>6.0667479999999996</v>
       </c>
       <c r="AB3" s="1">
-        <v>957.567000</v>
+        <v>957.56700000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.041100</v>
+        <v>-77.0411</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>21850.710187</v>
+        <v>21850.710187000001</v>
       </c>
       <c r="AF3" s="1">
         <v>6.069642</v>
       </c>
       <c r="AG3" s="1">
-        <v>962.299000</v>
+        <v>962.29899999999998</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.985000</v>
+        <v>-74.984999999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>21861.147537</v>
+        <v>21861.147537000001</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.072541</v>
+        <v>6.0725410000000002</v>
       </c>
       <c r="AL3" s="1">
-        <v>969.512000</v>
+        <v>969.51199999999994</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.926800</v>
+        <v>-79.9268</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>21872.349680</v>
+        <v>21872.349679999999</v>
       </c>
       <c r="AP3" s="1">
         <v>6.075653</v>
       </c>
       <c r="AQ3" s="1">
-        <v>977.690000</v>
+        <v>977.69</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.692700</v>
+        <v>-91.692700000000002</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>21883.383733</v>
+        <v>21883.383732999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>6.078718</v>
+        <v>6.0787180000000003</v>
       </c>
       <c r="AV3" s="1">
-        <v>987.608000</v>
+        <v>987.60799999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.580000</v>
+        <v>-109.58</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>21894.539201</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.081816</v>
+        <v>6.0818159999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>995.970000</v>
+        <v>995.97</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.388000</v>
+        <v>-125.38800000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>21905.218531</v>
+        <v>21905.218530999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.084783</v>
+        <v>6.0847829999999998</v>
       </c>
       <c r="BF3" s="1">
-        <v>1035.060000</v>
+        <v>1035.06</v>
       </c>
       <c r="BG3" s="1">
-        <v>-197.974000</v>
+        <v>-197.97399999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>21915.889989</v>
+        <v>21915.889988999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>6.087747</v>
+        <v>6.0877470000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1102.430000</v>
+        <v>1102.43</v>
       </c>
       <c r="BL3" s="1">
-        <v>-315.414000</v>
+        <v>-315.41399999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>21926.248408</v>
+        <v>21926.248407999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.090625</v>
+        <v>6.0906250000000002</v>
       </c>
       <c r="BP3" s="1">
-        <v>1211.530000</v>
+        <v>1211.53</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-500.375000</v>
+        <v>-500.375</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>21937.405914</v>
+        <v>21937.405913999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.093724</v>
+        <v>6.0937239999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1334.370000</v>
+        <v>1334.37</v>
       </c>
       <c r="BV3" s="1">
-        <v>-703.372000</v>
+        <v>-703.37199999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>21948.129946</v>
+        <v>21948.129946000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>6.096703</v>
+        <v>6.0967029999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1471.270000</v>
+        <v>1471.27</v>
       </c>
       <c r="CA3" s="1">
-        <v>-919.665000</v>
+        <v>-919.66499999999996</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>21959.323628</v>
+        <v>21959.323627999998</v>
       </c>
       <c r="CD3" s="1">
         <v>6.099812</v>
       </c>
       <c r="CE3" s="1">
-        <v>1832.330000</v>
+        <v>1832.33</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1433.030000</v>
+        <v>-1433.03</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>21787.975549</v>
+        <v>21787.975548999999</v>
       </c>
       <c r="B4" s="1">
-        <v>6.052215</v>
+        <v>6.0522150000000003</v>
       </c>
       <c r="C4" s="1">
-        <v>896.231000</v>
+        <v>896.23099999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-200.447000</v>
+        <v>-200.447</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>21798.398166</v>
+        <v>21798.398165999999</v>
       </c>
       <c r="G4" s="1">
-        <v>6.055111</v>
+        <v>6.0551110000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>914.113000</v>
+        <v>914.11300000000006</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.283000</v>
+        <v>-169.28299999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>21809.208930</v>
+        <v>21809.208930000001</v>
       </c>
       <c r="L4" s="1">
-        <v>6.058114</v>
+        <v>6.0581139999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>936.913000</v>
+        <v>936.91300000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.088000</v>
+        <v>-120.08799999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>21819.719652</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.061033</v>
+        <v>6.0610330000000001</v>
       </c>
       <c r="R4" s="1">
-        <v>943.996000</v>
+        <v>943.99599999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.749000</v>
+        <v>-103.749</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>21830.278486</v>
+        <v>21830.278485999999</v>
       </c>
       <c r="V4" s="1">
-        <v>6.063966</v>
+        <v>6.0639659999999997</v>
       </c>
       <c r="W4" s="1">
-        <v>950.544000</v>
+        <v>950.54399999999998</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.724000</v>
+        <v>-88.724000000000004</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>21840.641928</v>
+        <v>21840.641928000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>6.066845</v>
+        <v>6.0668449999999998</v>
       </c>
       <c r="AB4" s="1">
-        <v>957.654000</v>
+        <v>957.654</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.192900</v>
+        <v>-77.192899999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>21851.372876</v>
+        <v>21851.372876000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.069826</v>
+        <v>6.0698259999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>962.301000</v>
+        <v>962.30100000000004</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.975100</v>
+        <v>-74.975099999999998</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>21861.790348</v>
+        <v>21861.790347999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.072720</v>
+        <v>6.0727200000000003</v>
       </c>
       <c r="AL4" s="1">
-        <v>969.527000</v>
+        <v>969.52700000000004</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.901000</v>
+        <v>-79.900999999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>21872.774256</v>
+        <v>21872.774256000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.075771</v>
+        <v>6.0757709999999996</v>
       </c>
       <c r="AQ4" s="1">
-        <v>977.685000</v>
+        <v>977.68499999999995</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.691800</v>
+        <v>-91.691800000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>21883.801280</v>
+        <v>21883.80128</v>
       </c>
       <c r="AU4" s="1">
-        <v>6.078834</v>
+        <v>6.0788339999999996</v>
       </c>
       <c r="AV4" s="1">
-        <v>987.611000</v>
+        <v>987.61099999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.566000</v>
+        <v>-109.566</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>21894.898769</v>
+        <v>21894.898768999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.081916</v>
+        <v>6.0819159999999997</v>
       </c>
       <c r="BA4" s="1">
-        <v>995.985000</v>
+        <v>995.98500000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.385000</v>
+        <v>-125.38500000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>21905.579618</v>
       </c>
       <c r="BE4" s="1">
-        <v>6.084883</v>
+        <v>6.0848829999999996</v>
       </c>
       <c r="BF4" s="1">
-        <v>1035.070000</v>
+        <v>1035.07</v>
       </c>
       <c r="BG4" s="1">
-        <v>-197.947000</v>
+        <v>-197.947</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>21916.266960</v>
+        <v>21916.266960000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>6.087852</v>
+        <v>6.0878519999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1102.430000</v>
+        <v>1102.43</v>
       </c>
       <c r="BL4" s="1">
-        <v>-315.447000</v>
+        <v>-315.447</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>21926.676952</v>
+        <v>21926.676952000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>6.090744</v>
+        <v>6.0907439999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1211.540000</v>
+        <v>1211.54</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-500.335000</v>
+        <v>-500.33499999999998</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>21937.820601</v>
+        <v>21937.820600999999</v>
       </c>
       <c r="BT4" s="1">
         <v>6.093839</v>
       </c>
       <c r="BU4" s="1">
-        <v>1334.400000</v>
+        <v>1334.4</v>
       </c>
       <c r="BV4" s="1">
-        <v>-703.469000</v>
+        <v>-703.46900000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>21948.578310</v>
+        <v>21948.578310000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>6.096827</v>
+        <v>6.0968270000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1471.230000</v>
+        <v>1471.23</v>
       </c>
       <c r="CA4" s="1">
-        <v>-919.606000</v>
+        <v>-919.60599999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>21959.843966</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.099957</v>
+        <v>6.0999569999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1831.170000</v>
+        <v>1831.17</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1432.240000</v>
+        <v>-1432.24</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>21788.658838</v>
+        <v>21788.658837999999</v>
       </c>
       <c r="B5" s="1">
-        <v>6.052405</v>
+        <v>6.0524050000000003</v>
       </c>
       <c r="C5" s="1">
-        <v>895.980000</v>
+        <v>895.98</v>
       </c>
       <c r="D5" s="1">
-        <v>-200.511000</v>
+        <v>-200.511</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>21799.086576</v>
+        <v>21799.086576000002</v>
       </c>
       <c r="G5" s="1">
-        <v>6.055302</v>
+        <v>6.0553020000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>913.835000</v>
+        <v>913.83500000000004</v>
       </c>
       <c r="I5" s="1">
-        <v>-169.590000</v>
+        <v>-169.59</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>21809.554641</v>
+        <v>21809.554640999999</v>
       </c>
       <c r="L5" s="1">
-        <v>6.058210</v>
+        <v>6.0582099999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>937.311000</v>
+        <v>937.31100000000004</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.058000</v>
+        <v>-120.05800000000001</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>21820.068836</v>
+        <v>21820.068835999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>6.061130</v>
+        <v>6.0611300000000004</v>
       </c>
       <c r="R5" s="1">
-        <v>943.981000</v>
+        <v>943.98099999999999</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.787000</v>
+        <v>-103.78700000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>21830.621924</v>
+        <v>21830.621923999999</v>
       </c>
       <c r="V5" s="1">
-        <v>6.064062</v>
+        <v>6.0640619999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>950.522000</v>
+        <v>950.52200000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.661900</v>
+        <v>-88.661900000000003</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>21841.295623</v>
+        <v>21841.295623000002</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.067027</v>
+        <v>6.0670270000000004</v>
       </c>
       <c r="AB5" s="1">
-        <v>957.660000</v>
+        <v>957.66</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.154200</v>
+        <v>-77.154200000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>21851.743354</v>
+        <v>21851.743353999998</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.069929</v>
+        <v>6.0699290000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>962.339000</v>
+        <v>962.33900000000006</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.018300</v>
+        <v>-75.018299999999996</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>21862.190588</v>
+        <v>21862.190588000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.072831</v>
+        <v>6.0728309999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>969.531000</v>
+        <v>969.53099999999995</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.920600</v>
+        <v>-79.920599999999993</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>21873.152174</v>
+        <v>21873.152173999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>6.075876</v>
+        <v>6.0758760000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>977.663000</v>
+        <v>977.66300000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.690300</v>
+        <v>-91.690299999999993</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>21884.192164</v>
       </c>
       <c r="AU5" s="1">
-        <v>6.078942</v>
+        <v>6.0789419999999996</v>
       </c>
       <c r="AV5" s="1">
-        <v>987.608000</v>
+        <v>987.60799999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.573000</v>
+        <v>-109.57299999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>21895.258400</v>
+        <v>21895.258399999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>6.082016</v>
+        <v>6.0820160000000003</v>
       </c>
       <c r="BA5" s="1">
-        <v>995.980000</v>
+        <v>995.98</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.373000</v>
+        <v>-125.373</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>21905.988830</v>
+        <v>21905.988829999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.084997</v>
+        <v>6.0849970000000004</v>
       </c>
       <c r="BF5" s="1">
-        <v>1035.060000</v>
+        <v>1035.06</v>
       </c>
       <c r="BG5" s="1">
-        <v>-197.966000</v>
+        <v>-197.96600000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>21916.684548</v>
+        <v>21916.684548000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>6.087968</v>
       </c>
       <c r="BK5" s="1">
-        <v>1102.430000</v>
+        <v>1102.43</v>
       </c>
       <c r="BL5" s="1">
-        <v>-315.416000</v>
+        <v>-315.416</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>21927.065815</v>
+        <v>21927.065815000002</v>
       </c>
       <c r="BO5" s="1">
-        <v>6.090852</v>
+        <v>6.0908519999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1211.550000</v>
+        <v>1211.55</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-500.340000</v>
+        <v>-500.34</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>21938.237207</v>
+        <v>21938.237206999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>6.093955</v>
+        <v>6.0939550000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1334.340000</v>
+        <v>1334.34</v>
       </c>
       <c r="BV5" s="1">
-        <v>-703.519000</v>
+        <v>-703.51900000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>21949.034154</v>
+        <v>21949.034154000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.096954</v>
+        <v>6.0969540000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1471.300000</v>
+        <v>1471.3</v>
       </c>
       <c r="CA5" s="1">
-        <v>-919.719000</v>
+        <v>-919.71900000000005</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>21960.361765</v>
+        <v>21960.361765000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.100100</v>
+        <v>6.1001000000000003</v>
       </c>
       <c r="CE5" s="1">
-        <v>1831.720000</v>
+        <v>1831.72</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1432.370000</v>
+        <v>-1432.37</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>21788.998942</v>
+        <v>21788.998941999998</v>
       </c>
       <c r="B6" s="1">
-        <v>6.052500</v>
+        <v>6.0525000000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>896.107000</v>
+        <v>896.10699999999997</v>
       </c>
       <c r="D6" s="1">
-        <v>-200.473000</v>
+        <v>-200.47300000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>21799.430303</v>
+        <v>21799.430303000001</v>
       </c>
       <c r="G6" s="1">
-        <v>6.055397</v>
+        <v>6.0553970000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>913.813000</v>
+        <v>913.81299999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-169.674000</v>
+        <v>-169.67400000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>21809.899858</v>
+        <v>21809.899858000001</v>
       </c>
       <c r="L6" s="1">
         <v>6.058306</v>
       </c>
       <c r="M6" s="1">
-        <v>937.231000</v>
+        <v>937.23099999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.133000</v>
+        <v>-120.133</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>21820.723556</v>
+        <v>21820.723556000001</v>
       </c>
       <c r="Q6" s="1">
         <v>6.061312</v>
       </c>
       <c r="R6" s="1">
-        <v>943.971000</v>
+        <v>943.971</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.798000</v>
+        <v>-103.798</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>21831.280446</v>
+        <v>21831.280446000001</v>
       </c>
       <c r="V6" s="1">
-        <v>6.064245</v>
+        <v>6.0642449999999997</v>
       </c>
       <c r="W6" s="1">
-        <v>950.541000</v>
+        <v>950.54100000000005</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.735200</v>
+        <v>-88.735200000000006</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>21841.686986</v>
+        <v>21841.686986000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.067135</v>
+        <v>6.0671350000000004</v>
       </c>
       <c r="AB6" s="1">
-        <v>957.705000</v>
+        <v>957.70500000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.053700</v>
+        <v>-77.053700000000006</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>21852.086589</v>
+        <v>21852.086588999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.070024</v>
+        <v>6.0700240000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>962.348000</v>
+        <v>962.34799999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.018000</v>
+        <v>-75.018000000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>21862.538812</v>
+        <v>21862.538811999999</v>
       </c>
       <c r="AK6" s="1">
         <v>6.072927</v>
       </c>
       <c r="AL6" s="1">
-        <v>969.527000</v>
+        <v>969.52700000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.919500</v>
+        <v>-79.919499999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>21873.540542</v>
+        <v>21873.540541999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.075983</v>
+        <v>6.0759829999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>977.658000</v>
+        <v>977.65800000000002</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.676100</v>
+        <v>-91.676100000000005</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>21884.553742</v>
       </c>
       <c r="AU6" s="1">
-        <v>6.079043</v>
+        <v>6.0790430000000004</v>
       </c>
       <c r="AV6" s="1">
-        <v>987.622000</v>
+        <v>987.62199999999996</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.580000</v>
+        <v>-109.58</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>21895.679968</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.082133</v>
+        <v>6.0821329999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>995.980000</v>
+        <v>995.98</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.373000</v>
+        <v>-125.373</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>21906.301826</v>
+        <v>21906.301825999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.085084</v>
+        <v>6.0850840000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1035.060000</v>
+        <v>1035.06</v>
       </c>
       <c r="BG6" s="1">
-        <v>-197.963000</v>
+        <v>-197.96299999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>21917.039187</v>
+        <v>21917.039186999998</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.088066</v>
+        <v>6.0880660000000004</v>
       </c>
       <c r="BK6" s="1">
-        <v>1102.470000</v>
+        <v>1102.47</v>
       </c>
       <c r="BL6" s="1">
-        <v>-315.411000</v>
+        <v>-315.411</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>21927.462614</v>
       </c>
       <c r="BO6" s="1">
-        <v>6.090962</v>
+        <v>6.0909620000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1211.550000</v>
+        <v>1211.55</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-500.326000</v>
+        <v>-500.32600000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>21938.649383</v>
       </c>
       <c r="BT6" s="1">
-        <v>6.094069</v>
+        <v>6.0940690000000002</v>
       </c>
       <c r="BU6" s="1">
-        <v>1334.260000</v>
+        <v>1334.26</v>
       </c>
       <c r="BV6" s="1">
-        <v>-703.544000</v>
+        <v>-703.54399999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>21949.484490</v>
+        <v>21949.484489999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.097079</v>
+        <v>6.0970789999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1471.270000</v>
+        <v>1471.27</v>
       </c>
       <c r="CA6" s="1">
-        <v>-919.640000</v>
+        <v>-919.64</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>21960.910826</v>
+        <v>21960.910825999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.100253</v>
+        <v>6.1002530000000004</v>
       </c>
       <c r="CE6" s="1">
-        <v>1832.170000</v>
+        <v>1832.17</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1432.900000</v>
+        <v>-1432.9</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>21789.348124</v>
       </c>
       <c r="B7" s="1">
-        <v>6.052597</v>
+        <v>6.0525969999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>896.050000</v>
+        <v>896.05</v>
       </c>
       <c r="D7" s="1">
-        <v>-200.399000</v>
+        <v>-200.399</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>21800.075102</v>
+        <v>21800.075101999999</v>
       </c>
       <c r="G7" s="1">
-        <v>6.055576</v>
+        <v>6.0555760000000003</v>
       </c>
       <c r="H7" s="1">
-        <v>914.035000</v>
+        <v>914.03499999999997</v>
       </c>
       <c r="I7" s="1">
-        <v>-169.543000</v>
+        <v>-169.54300000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>21810.564497</v>
+        <v>21810.564496999999</v>
       </c>
       <c r="L7" s="1">
-        <v>6.058490</v>
+        <v>6.0584899999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>937.109000</v>
+        <v>937.10900000000004</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.086000</v>
+        <v>-120.086</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>21821.113410</v>
+        <v>21821.113410000002</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.061420</v>
+        <v>6.06142</v>
       </c>
       <c r="R7" s="1">
-        <v>943.985000</v>
+        <v>943.98500000000001</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.830000</v>
+        <v>-103.83</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>21831.658853</v>
+        <v>21831.658853000001</v>
       </c>
       <c r="V7" s="1">
-        <v>6.064350</v>
+        <v>6.0643500000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>950.558000</v>
+        <v>950.55799999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.751500</v>
+        <v>-88.751499999999993</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>21842.033213</v>
+        <v>21842.033212999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.067231</v>
+        <v>6.0672309999999996</v>
       </c>
       <c r="AB7" s="1">
-        <v>957.677000</v>
+        <v>957.67700000000002</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.124300</v>
+        <v>-77.124300000000005</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>21852.427338</v>
+        <v>21852.427338000001</v>
       </c>
       <c r="AF7" s="1">
         <v>6.070119</v>
       </c>
       <c r="AG7" s="1">
-        <v>962.347000</v>
+        <v>962.34699999999998</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.005100</v>
+        <v>-75.005099999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>21862.889484</v>
+        <v>21862.889483999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.073025</v>
+        <v>6.0730250000000003</v>
       </c>
       <c r="AL7" s="1">
-        <v>969.542000</v>
+        <v>969.54200000000003</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.925900</v>
+        <v>-79.925899999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>21873.953741</v>
+        <v>21873.953741000001</v>
       </c>
       <c r="AP7" s="1">
         <v>6.076098</v>
       </c>
       <c r="AQ7" s="1">
-        <v>977.666000</v>
+        <v>977.66600000000005</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.676400</v>
+        <v>-91.676400000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>21885.040323</v>
+        <v>21885.040323000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.079178</v>
+        <v>6.0791779999999997</v>
       </c>
       <c r="AV7" s="1">
-        <v>987.591000</v>
+        <v>987.59100000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.579000</v>
+        <v>-109.57899999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>21895.976081</v>
+        <v>21895.976081000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.082216</v>
+        <v>6.0822159999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>995.992000</v>
+        <v>995.99199999999996</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.378000</v>
+        <v>-125.378</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>21906.661395</v>
+        <v>21906.661394999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>6.085184</v>
+        <v>6.0851839999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1035.070000</v>
+        <v>1035.07</v>
       </c>
       <c r="BG7" s="1">
-        <v>-197.958000</v>
+        <v>-197.958</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>21917.414660</v>
+        <v>21917.414659999999</v>
       </c>
       <c r="BJ7" s="1">
         <v>6.088171</v>
       </c>
       <c r="BK7" s="1">
-        <v>1102.450000</v>
+        <v>1102.45</v>
       </c>
       <c r="BL7" s="1">
-        <v>-315.415000</v>
+        <v>-315.41500000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>21927.883718</v>
+        <v>21927.883718000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.091079</v>
+        <v>6.0910789999999997</v>
       </c>
       <c r="BP7" s="1">
-        <v>1211.530000</v>
+        <v>1211.53</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-500.302000</v>
+        <v>-500.30200000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>21939.064040</v>
+        <v>21939.064040000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.094184</v>
+        <v>6.0941840000000003</v>
       </c>
       <c r="BU7" s="1">
-        <v>1334.260000</v>
+        <v>1334.26</v>
       </c>
       <c r="BV7" s="1">
-        <v>-703.611000</v>
+        <v>-703.61099999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>21949.937864</v>
       </c>
       <c r="BY7" s="1">
-        <v>6.097205</v>
+        <v>6.0972049999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1471.350000</v>
+        <v>1471.35</v>
       </c>
       <c r="CA7" s="1">
-        <v>-919.745000</v>
+        <v>-919.745</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>21961.442537</v>
+        <v>21961.442536999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.100401</v>
+        <v>6.1004009999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>1830.990000</v>
+        <v>1830.99</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1432.300000</v>
+        <v>-1432.3</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>21789.992133</v>
       </c>
       <c r="B8" s="1">
-        <v>6.052776</v>
+        <v>6.0527759999999997</v>
       </c>
       <c r="C8" s="1">
-        <v>895.965000</v>
+        <v>895.96500000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>-200.463000</v>
+        <v>-200.46299999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>21800.462013</v>
       </c>
       <c r="G8" s="1">
-        <v>6.055684</v>
+        <v>6.0556840000000003</v>
       </c>
       <c r="H8" s="1">
-        <v>913.788000</v>
+        <v>913.78800000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-169.255000</v>
+        <v>-169.255</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>21810.938996</v>
+        <v>21810.938996000001</v>
       </c>
       <c r="L8" s="1">
-        <v>6.058594</v>
+        <v>6.0585940000000003</v>
       </c>
       <c r="M8" s="1">
-        <v>937.151000</v>
+        <v>937.15099999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.067000</v>
+        <v>-120.06699999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>21821.465074</v>
       </c>
       <c r="Q8" s="1">
-        <v>6.061518</v>
+        <v>6.0615180000000004</v>
       </c>
       <c r="R8" s="1">
-        <v>943.964000</v>
+        <v>943.96400000000006</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.773000</v>
+        <v>-103.773</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>21832.006052</v>
+        <v>21832.006052000001</v>
       </c>
       <c r="V8" s="1">
-        <v>6.064446</v>
+        <v>6.0644460000000002</v>
       </c>
       <c r="W8" s="1">
-        <v>950.511000</v>
+        <v>950.51099999999997</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.736700</v>
+        <v>-88.736699999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>21842.381366</v>
+        <v>21842.381366000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.067328</v>
+        <v>6.0673279999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>957.602000</v>
+        <v>957.60199999999998</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.078100</v>
+        <v>-77.078100000000006</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>21852.848938</v>
+        <v>21852.848937999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.070236</v>
+        <v>6.0702360000000004</v>
       </c>
       <c r="AG8" s="1">
-        <v>962.291000</v>
+        <v>962.29100000000005</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.984900</v>
+        <v>-74.984899999999996</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>21863.318492</v>
+        <v>21863.318491999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.073144</v>
+        <v>6.0731440000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>969.541000</v>
+        <v>969.54100000000005</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.903700</v>
+        <v>-79.903700000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>21874.263249</v>
       </c>
       <c r="AP8" s="1">
-        <v>6.076184</v>
+        <v>6.0761839999999996</v>
       </c>
       <c r="AQ8" s="1">
-        <v>977.664000</v>
+        <v>977.66399999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.691700</v>
+        <v>-91.691699999999997</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>21885.283599</v>
+        <v>21885.283598999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>6.079245</v>
+        <v>6.0792450000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>987.599000</v>
+        <v>987.59900000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.595000</v>
+        <v>-109.595</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>21896.335716</v>
+        <v>21896.335716000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6.082315</v>
+        <v>6.0823150000000004</v>
       </c>
       <c r="BA8" s="1">
-        <v>995.969000</v>
+        <v>995.96900000000005</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.383000</v>
+        <v>-125.383</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>21907.022977</v>
+        <v>21907.022977000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>6.085284</v>
+        <v>6.0852839999999997</v>
       </c>
       <c r="BF8" s="1">
-        <v>1035.060000</v>
+        <v>1035.06</v>
       </c>
       <c r="BG8" s="1">
-        <v>-197.963000</v>
+        <v>-197.96299999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>21917.778723</v>
+        <v>21917.778722999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>6.088272</v>
+        <v>6.0882719999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1102.440000</v>
+        <v>1102.44</v>
       </c>
       <c r="BL8" s="1">
-        <v>-315.436000</v>
+        <v>-315.43599999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>21928.297380</v>
+        <v>21928.29738</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.091194</v>
+        <v>6.0911939999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1211.560000</v>
+        <v>1211.56</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-500.336000</v>
+        <v>-500.33600000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>21939.503992</v>
+        <v>21939.503992000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.094307</v>
+        <v>6.0943069999999997</v>
       </c>
       <c r="BU8" s="1">
-        <v>1334.200000</v>
+        <v>1334.2</v>
       </c>
       <c r="BV8" s="1">
-        <v>-703.659000</v>
+        <v>-703.65899999999999</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>21950.387736</v>
+        <v>21950.387736000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>6.097330</v>
+        <v>6.0973300000000004</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1471.280000</v>
+        <v>1471.28</v>
       </c>
       <c r="CA8" s="1">
-        <v>-919.719000</v>
+        <v>-919.71900000000005</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>21961.960856</v>
+        <v>21961.960856000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>6.100545</v>
+        <v>6.1005450000000003</v>
       </c>
       <c r="CE8" s="1">
-        <v>1831.780000</v>
+        <v>1831.78</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1432.540000</v>
+        <v>-1432.54</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>21790.371371</v>
+        <v>21790.371371000001</v>
       </c>
       <c r="B9" s="1">
-        <v>6.052881</v>
+        <v>6.0528810000000002</v>
       </c>
       <c r="C9" s="1">
-        <v>896.179000</v>
+        <v>896.17899999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-200.443000</v>
+        <v>-200.44300000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>21800.810703</v>
+        <v>21800.810702999999</v>
       </c>
       <c r="G9" s="1">
-        <v>6.055781</v>
+        <v>6.0557809999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>914.199000</v>
+        <v>914.19899999999996</v>
       </c>
       <c r="I9" s="1">
-        <v>-169.259000</v>
+        <v>-169.25899999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>21811.282703</v>
+        <v>21811.282703000001</v>
       </c>
       <c r="L9" s="1">
-        <v>6.058690</v>
+        <v>6.0586900000000004</v>
       </c>
       <c r="M9" s="1">
-        <v>937.123000</v>
+        <v>937.12300000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.972000</v>
+        <v>-119.97199999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>21821.813299</v>
+        <v>21821.813299000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.061615</v>
+        <v>6.0616149999999998</v>
       </c>
       <c r="R9" s="1">
-        <v>944.000000</v>
+        <v>944</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.776000</v>
+        <v>-103.776</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>21832.346803</v>
       </c>
       <c r="V9" s="1">
-        <v>6.064541</v>
+        <v>6.0645410000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>950.572000</v>
+        <v>950.572</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.653100</v>
+        <v>-88.653099999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>21842.795527</v>
+        <v>21842.795526999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.067443</v>
+        <v>6.0674429999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>957.618000</v>
+        <v>957.61800000000005</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.084300</v>
+        <v>-77.084299999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>21853.139592</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.070317</v>
+        <v>6.0703170000000002</v>
       </c>
       <c r="AG9" s="1">
-        <v>962.274000</v>
+        <v>962.274</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.983300</v>
+        <v>-74.9833</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>21863.587354</v>
+        <v>21863.587353999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>6.073219</v>
+        <v>6.0732189999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>969.533000</v>
+        <v>969.53300000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.928600</v>
+        <v>-79.928600000000003</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>21874.621325</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.076284</v>
+        <v>6.0762840000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>977.677000</v>
+        <v>977.67700000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.668800</v>
+        <v>-91.668800000000005</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>21885.647917</v>
+        <v>21885.647916999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.079347</v>
+        <v>6.0793470000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>987.616000</v>
+        <v>987.61599999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.576000</v>
+        <v>-109.57599999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>21896.695775</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6.082415</v>
+        <v>6.0824150000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>995.982000</v>
+        <v>995.98199999999997</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.400000</v>
+        <v>-125.4</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>21907.747634</v>
+        <v>21907.747633999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.085485</v>
+        <v>6.0854850000000003</v>
       </c>
       <c r="BF9" s="1">
-        <v>1035.050000</v>
+        <v>1035.05</v>
       </c>
       <c r="BG9" s="1">
-        <v>-197.960000</v>
+        <v>-197.96</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>21918.538632</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.088483</v>
+        <v>6.0884830000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1102.420000</v>
+        <v>1102.42</v>
       </c>
       <c r="BL9" s="1">
-        <v>-315.471000</v>
+        <v>-315.471</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>21928.700164</v>
+        <v>21928.700164000002</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.091306</v>
+        <v>6.0913060000000003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1211.600000</v>
+        <v>1211.5999999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-500.347000</v>
+        <v>-500.34699999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>21939.929062</v>
+        <v>21939.929061999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.094425</v>
+        <v>6.0944250000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1334.120000</v>
+        <v>1334.12</v>
       </c>
       <c r="BV9" s="1">
-        <v>-703.714000</v>
+        <v>-703.71400000000006</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>21950.845543</v>
+        <v>21950.845542999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.097457</v>
+        <v>6.0974570000000003</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1471.270000</v>
+        <v>1471.27</v>
       </c>
       <c r="CA9" s="1">
-        <v>-919.781000</v>
+        <v>-919.78099999999995</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>21962.816952</v>
+        <v>21962.816952000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>6.100782</v>
+        <v>6.1007819999999997</v>
       </c>
       <c r="CE9" s="1">
-        <v>1832.410000</v>
+        <v>1832.41</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1433.020000</v>
+        <v>-1433.02</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>21790.721052</v>
+        <v>21790.721052000001</v>
       </c>
       <c r="B10" s="1">
-        <v>6.052978</v>
+        <v>6.0529780000000004</v>
       </c>
       <c r="C10" s="1">
-        <v>896.106000</v>
+        <v>896.10599999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-200.562000</v>
+        <v>-200.56200000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>21801.155886</v>
       </c>
       <c r="G10" s="1">
-        <v>6.055877</v>
+        <v>6.0558769999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>913.828000</v>
+        <v>913.82799999999997</v>
       </c>
       <c r="I10" s="1">
-        <v>-169.597000</v>
+        <v>-169.59700000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>21811.627455</v>
+        <v>21811.627455000002</v>
       </c>
       <c r="L10" s="1">
-        <v>6.058785</v>
+        <v>6.0587850000000003</v>
       </c>
       <c r="M10" s="1">
-        <v>937.226000</v>
+        <v>937.226</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.013000</v>
+        <v>-120.01300000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>21822.221009</v>
+        <v>21822.221009000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.061728</v>
+        <v>6.0617279999999996</v>
       </c>
       <c r="R10" s="1">
-        <v>944.012000</v>
+        <v>944.01199999999994</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.757000</v>
+        <v>-103.75700000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>21832.818008</v>
+        <v>21832.818007999998</v>
       </c>
       <c r="V10" s="1">
-        <v>6.064672</v>
+        <v>6.0646719999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>950.503000</v>
+        <v>950.50300000000004</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.676800</v>
+        <v>-88.6768</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>21843.091177</v>
+        <v>21843.091176999998</v>
       </c>
       <c r="AA10" s="1">
-        <v>6.067525</v>
+        <v>6.0675249999999998</v>
       </c>
       <c r="AB10" s="1">
-        <v>957.607000</v>
+        <v>957.60699999999997</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.055700</v>
+        <v>-77.055700000000002</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>21853.485800</v>
+        <v>21853.485799999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.070413</v>
+        <v>6.0704130000000003</v>
       </c>
       <c r="AG10" s="1">
-        <v>962.326000</v>
+        <v>962.32600000000002</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.984000</v>
+        <v>-74.983999999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>21863.937994</v>
       </c>
       <c r="AK10" s="1">
-        <v>6.073316</v>
+        <v>6.0733160000000002</v>
       </c>
       <c r="AL10" s="1">
-        <v>969.537000</v>
+        <v>969.53700000000003</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.916100</v>
+        <v>-79.9161</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>21874.982907</v>
+        <v>21874.982907000001</v>
       </c>
       <c r="AP10" s="1">
         <v>6.076384</v>
       </c>
       <c r="AQ10" s="1">
-        <v>977.686000</v>
+        <v>977.68600000000004</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.671800</v>
+        <v>-91.671800000000005</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>21886.377500</v>
+        <v>21886.377499999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.079549</v>
+        <v>6.0795490000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>987.602000</v>
+        <v>987.60199999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.573000</v>
+        <v>-109.57299999999999</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>21897.422909</v>
+        <v>21897.422909000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6.082617</v>
+        <v>6.0826169999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>995.975000</v>
+        <v>995.97500000000002</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.390000</v>
+        <v>-125.39</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>21908.106768</v>
+        <v>21908.106768000001</v>
       </c>
       <c r="BE10" s="1">
         <v>6.085585</v>
       </c>
       <c r="BF10" s="1">
-        <v>1035.070000</v>
+        <v>1035.07</v>
       </c>
       <c r="BG10" s="1">
-        <v>-197.951000</v>
+        <v>-197.95099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>21918.913851</v>
+        <v>21918.913851000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6.088587</v>
+        <v>6.0885870000000004</v>
       </c>
       <c r="BK10" s="1">
-        <v>1102.430000</v>
+        <v>1102.43</v>
       </c>
       <c r="BL10" s="1">
-        <v>-315.452000</v>
+        <v>-315.452</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>21929.099445</v>
       </c>
       <c r="BO10" s="1">
-        <v>6.091417</v>
+        <v>6.0914169999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1211.520000</v>
+        <v>1211.52</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-500.369000</v>
+        <v>-500.36900000000003</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>21940.646276</v>
+        <v>21940.646275999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.094624</v>
+        <v>6.0946239999999996</v>
       </c>
       <c r="BU10" s="1">
-        <v>1334.070000</v>
+        <v>1334.07</v>
       </c>
       <c r="BV10" s="1">
-        <v>-703.684000</v>
+        <v>-703.68399999999997</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>21951.598471</v>
+        <v>21951.598471000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.097666</v>
+        <v>6.0976660000000003</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1471.230000</v>
+        <v>1471.23</v>
       </c>
       <c r="CA10" s="1">
-        <v>-919.714000</v>
+        <v>-919.71400000000006</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>21963.041143</v>
+        <v>21963.041142999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>6.100845</v>
+        <v>6.1008449999999996</v>
       </c>
       <c r="CE10" s="1">
-        <v>1831.160000</v>
+        <v>1831.16</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1432.460000</v>
+        <v>-1432.46</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>21791.060346</v>
+        <v>21791.060345999998</v>
       </c>
       <c r="B11" s="1">
-        <v>6.053072</v>
+        <v>6.0530720000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>896.182000</v>
+        <v>896.18200000000002</v>
       </c>
       <c r="D11" s="1">
-        <v>-200.571000</v>
+        <v>-200.571</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>21801.570540</v>
+        <v>21801.570540000001</v>
       </c>
       <c r="G11" s="1">
-        <v>6.055992</v>
+        <v>6.0559919999999998</v>
       </c>
       <c r="H11" s="1">
-        <v>914.101000</v>
+        <v>914.101</v>
       </c>
       <c r="I11" s="1">
-        <v>-169.472000</v>
+        <v>-169.47200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>21812.040094</v>
       </c>
       <c r="L11" s="1">
-        <v>6.058900</v>
+        <v>6.0589000000000004</v>
       </c>
       <c r="M11" s="1">
-        <v>937.182000</v>
+        <v>937.18200000000002</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.115000</v>
+        <v>-120.11499999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>21822.512162</v>
+        <v>21822.512161999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.061809</v>
+        <v>6.0618090000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>943.997000</v>
+        <v>943.99699999999996</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.793000</v>
+        <v>-103.79300000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>21833.045173</v>
+        <v>21833.045172999999</v>
       </c>
       <c r="V11" s="1">
-        <v>6.064735</v>
+        <v>6.0647349999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>950.562000</v>
+        <v>950.56200000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.680400</v>
+        <v>-88.680400000000006</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>21843.438373</v>
+        <v>21843.438373000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.067622</v>
+        <v>6.0676220000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>957.557000</v>
+        <v>957.55700000000002</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.083700</v>
+        <v>-77.083699999999993</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>21853.826583</v>
+        <v>21853.826582999998</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.070507</v>
+        <v>6.0705070000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>962.301000</v>
+        <v>962.30100000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.974500</v>
+        <v>-74.974500000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>21864.287197</v>
+        <v>21864.287197000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.073413</v>
+        <v>6.0734130000000004</v>
       </c>
       <c r="AL11" s="1">
-        <v>969.534000</v>
+        <v>969.53399999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.927400</v>
+        <v>-79.927400000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>21875.710043</v>
+        <v>21875.710042999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>6.076586</v>
+        <v>6.0765859999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>977.686000</v>
+        <v>977.68600000000004</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.668100</v>
+        <v>-91.668099999999995</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>21886.741099</v>
+        <v>21886.741098999999</v>
       </c>
       <c r="AU11" s="1">
-        <v>6.079650</v>
+        <v>6.07965</v>
       </c>
       <c r="AV11" s="1">
-        <v>987.625000</v>
+        <v>987.625</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.568000</v>
+        <v>-109.568</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>21897.797389</v>
+        <v>21897.797388999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.082721</v>
+        <v>6.0827210000000003</v>
       </c>
       <c r="BA11" s="1">
-        <v>995.982000</v>
+        <v>995.98199999999997</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.378000</v>
+        <v>-125.378</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>21908.468853</v>
+        <v>21908.468852999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.085686</v>
+        <v>6.0856859999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1035.080000</v>
+        <v>1035.08</v>
       </c>
       <c r="BG11" s="1">
-        <v>-197.959000</v>
+        <v>-197.959</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>21919.289536</v>
@@ -2974,76 +3390,76 @@
         <v>6.088692</v>
       </c>
       <c r="BK11" s="1">
-        <v>1102.440000</v>
+        <v>1102.44</v>
       </c>
       <c r="BL11" s="1">
-        <v>-315.405000</v>
+        <v>-315.40499999999997</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>21929.821588</v>
+        <v>21929.821587999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.091617</v>
+        <v>6.0916170000000003</v>
       </c>
       <c r="BP11" s="1">
-        <v>1211.570000</v>
+        <v>1211.57</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-500.396000</v>
+        <v>-500.39600000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>21940.774250</v>
+        <v>21940.774249999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.094660</v>
+        <v>6.0946600000000002</v>
       </c>
       <c r="BU11" s="1">
-        <v>1333.990000</v>
+        <v>1333.99</v>
       </c>
       <c r="BV11" s="1">
-        <v>-703.643000</v>
+        <v>-703.64300000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>21951.741286</v>
       </c>
       <c r="BY11" s="1">
-        <v>6.097706</v>
+        <v>6.0977059999999996</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1471.420000</v>
+        <v>1471.42</v>
       </c>
       <c r="CA11" s="1">
-        <v>-919.636000</v>
+        <v>-919.63599999999997</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>21963.560983</v>
+        <v>21963.560982999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.100989</v>
+        <v>6.1009890000000002</v>
       </c>
       <c r="CE11" s="1">
-        <v>1830.570000</v>
+        <v>1830.57</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1433.710000</v>
+        <v>-1433.71</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>21791.488362</v>
       </c>
@@ -3051,587 +3467,587 @@
         <v>6.053191</v>
       </c>
       <c r="C12" s="1">
-        <v>896.116000</v>
+        <v>896.11599999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-200.422000</v>
+        <v>-200.422</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>21801.840860</v>
+        <v>21801.84086</v>
       </c>
       <c r="G12" s="1">
-        <v>6.056067</v>
+        <v>6.0560669999999996</v>
       </c>
       <c r="H12" s="1">
-        <v>914.301000</v>
+        <v>914.30100000000004</v>
       </c>
       <c r="I12" s="1">
-        <v>-169.758000</v>
+        <v>-169.75800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>21812.341695</v>
+        <v>21812.341694999999</v>
       </c>
       <c r="L12" s="1">
-        <v>6.058984</v>
+        <v>6.0589839999999997</v>
       </c>
       <c r="M12" s="1">
-        <v>937.306000</v>
+        <v>937.30600000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.269000</v>
+        <v>-120.26900000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>21822.862304</v>
+        <v>21822.862303999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.061906</v>
+        <v>6.0619059999999996</v>
       </c>
       <c r="R12" s="1">
-        <v>944.027000</v>
+        <v>944.02700000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.784000</v>
+        <v>-103.78400000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>21833.388899</v>
+        <v>21833.388899000001</v>
       </c>
       <c r="V12" s="1">
-        <v>6.064830</v>
+        <v>6.0648299999999997</v>
       </c>
       <c r="W12" s="1">
-        <v>950.568000</v>
+        <v>950.56799999999998</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.714400</v>
+        <v>-88.714399999999998</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>21843.789012</v>
+        <v>21843.789012000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.067719</v>
+        <v>6.0677190000000003</v>
       </c>
       <c r="AB12" s="1">
-        <v>957.682000</v>
+        <v>957.68200000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.131700</v>
+        <v>-77.131699999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>21854.513547</v>
+        <v>21854.513546999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.070698</v>
+        <v>6.0706980000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>962.284000</v>
+        <v>962.28399999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.021300</v>
+        <v>-75.021299999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>21864.982099</v>
+        <v>21864.982099000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>6.073606</v>
+        <v>6.0736059999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>969.548000</v>
+        <v>969.548</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.917900</v>
+        <v>-79.917900000000003</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>21876.086010</v>
+        <v>21876.086009999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>6.076691</v>
+        <v>6.0766910000000003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>977.651000</v>
+        <v>977.65099999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.695500</v>
+        <v>-91.695499999999996</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>21887.105166</v>
+        <v>21887.105166000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.079751</v>
+        <v>6.0797509999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>987.609000</v>
+        <v>987.60900000000004</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.565000</v>
+        <v>-109.565</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>21898.174349</v>
+        <v>21898.174349000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.082826</v>
+        <v>6.0828259999999998</v>
       </c>
       <c r="BA12" s="1">
-        <v>995.997000</v>
+        <v>995.99699999999996</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.372000</v>
+        <v>-125.372</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>21909.145854</v>
+        <v>21909.145853999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>6.085874</v>
+        <v>6.0858739999999996</v>
       </c>
       <c r="BF12" s="1">
-        <v>1035.070000</v>
+        <v>1035.07</v>
       </c>
       <c r="BG12" s="1">
-        <v>-197.977000</v>
+        <v>-197.977</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>21919.810833</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.088836</v>
+        <v>6.0888359999999997</v>
       </c>
       <c r="BK12" s="1">
-        <v>1102.440000</v>
+        <v>1102.44</v>
       </c>
       <c r="BL12" s="1">
-        <v>-315.438000</v>
+        <v>-315.43799999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>21929.942642</v>
+        <v>21929.942642000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>6.091651</v>
+        <v>6.0916509999999997</v>
       </c>
       <c r="BP12" s="1">
-        <v>1211.540000</v>
+        <v>1211.54</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-500.403000</v>
+        <v>-500.40300000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>21941.211950</v>
+        <v>21941.211950000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>6.094781</v>
+        <v>6.0947810000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1333.950000</v>
+        <v>1333.95</v>
       </c>
       <c r="BV12" s="1">
-        <v>-703.642000</v>
+        <v>-703.64200000000005</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>21952.165862</v>
+        <v>21952.165862000002</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.097824</v>
+        <v>6.0978240000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1471.260000</v>
+        <v>1471.26</v>
       </c>
       <c r="CA12" s="1">
-        <v>-919.692000</v>
+        <v>-919.69200000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>21964.079797</v>
+        <v>21964.079796999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>6.101133</v>
+        <v>6.1011329999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1831.960000</v>
+        <v>1831.96</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1433.840000</v>
+        <v>-1433.84</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>21791.758543</v>
       </c>
       <c r="B13" s="1">
-        <v>6.053266</v>
+        <v>6.0532659999999998</v>
       </c>
       <c r="C13" s="1">
-        <v>896.120000</v>
+        <v>896.12</v>
       </c>
       <c r="D13" s="1">
-        <v>-200.575000</v>
+        <v>-200.57499999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>21802.196523</v>
+        <v>21802.196522999999</v>
       </c>
       <c r="G13" s="1">
-        <v>6.056166</v>
+        <v>6.0561660000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>914.141000</v>
+        <v>914.14099999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.680000</v>
+        <v>-169.68</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>21812.686381</v>
       </c>
       <c r="L13" s="1">
-        <v>6.059080</v>
+        <v>6.0590799999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>937.253000</v>
+        <v>937.25300000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.115000</v>
+        <v>-120.11499999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>21823.211488</v>
+        <v>21823.211488000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.062003</v>
+        <v>6.0620029999999998</v>
       </c>
       <c r="R13" s="1">
-        <v>943.967000</v>
+        <v>943.96699999999998</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.796000</v>
+        <v>-103.79600000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>21834.075363</v>
       </c>
       <c r="V13" s="1">
-        <v>6.065021</v>
+        <v>6.0650209999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>950.546000</v>
+        <v>950.54600000000005</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.668500</v>
+        <v>-88.668499999999995</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>21844.484900</v>
+        <v>21844.484899999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.067912</v>
+        <v>6.0679119999999998</v>
       </c>
       <c r="AB13" s="1">
-        <v>957.658000</v>
+        <v>957.65800000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.145800</v>
+        <v>-77.145799999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>21854.859717</v>
+        <v>21854.859716999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.070794</v>
+        <v>6.0707940000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>962.315000</v>
+        <v>962.31500000000005</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.010300</v>
+        <v>-75.010300000000001</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>21865.333737</v>
+        <v>21865.333737000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>6.073704</v>
+        <v>6.0737040000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>969.532000</v>
+        <v>969.53200000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.913300</v>
+        <v>-79.913300000000007</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>21876.446639</v>
+        <v>21876.446639000002</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.076791</v>
+        <v>6.0767910000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>977.682000</v>
+        <v>977.68200000000002</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.667100</v>
+        <v>-91.667100000000005</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>21887.771754</v>
+        <v>21887.771754000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.079937</v>
+        <v>6.0799370000000001</v>
       </c>
       <c r="AV13" s="1">
-        <v>987.626000</v>
+        <v>987.62599999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.572000</v>
+        <v>-109.572</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>21898.842956</v>
       </c>
       <c r="AZ13" s="1">
-        <v>6.083012</v>
+        <v>6.0830120000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>995.994000</v>
+        <v>995.99400000000003</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.383000</v>
+        <v>-125.383</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>21909.578367</v>
+        <v>21909.578366999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.085994</v>
+        <v>6.0859940000000003</v>
       </c>
       <c r="BF13" s="1">
-        <v>1035.080000</v>
+        <v>1035.08</v>
       </c>
       <c r="BG13" s="1">
-        <v>-197.965000</v>
+        <v>-197.965</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>21920.051429</v>
+        <v>21920.051428999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>6.088903</v>
+        <v>6.0889030000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1102.450000</v>
+        <v>1102.45</v>
       </c>
       <c r="BL13" s="1">
-        <v>-315.459000</v>
+        <v>-315.459</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>21930.340402</v>
+        <v>21930.340402000002</v>
       </c>
       <c r="BO13" s="1">
         <v>6.091761</v>
       </c>
       <c r="BP13" s="1">
-        <v>1211.580000</v>
+        <v>1211.58</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-500.362000</v>
+        <v>-500.36200000000002</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>21941.638277</v>
+        <v>21941.638276999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>6.094900</v>
+        <v>6.0949</v>
       </c>
       <c r="BU13" s="1">
-        <v>1333.970000</v>
+        <v>1333.97</v>
       </c>
       <c r="BV13" s="1">
-        <v>-703.623000</v>
+        <v>-703.62300000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>21952.587461</v>
+        <v>21952.587460999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.097941</v>
+        <v>6.0979409999999996</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1471.320000</v>
+        <v>1471.32</v>
       </c>
       <c r="CA13" s="1">
-        <v>-919.784000</v>
+        <v>-919.78399999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>21964.598599</v>
+        <v>21964.598599000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.101277</v>
+        <v>6.1012769999999996</v>
       </c>
       <c r="CE13" s="1">
-        <v>1831.950000</v>
+        <v>1831.95</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1433.990000</v>
+        <v>-1433.99</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>21792.104425</v>
+        <v>21792.104425000001</v>
       </c>
       <c r="B14" s="1">
-        <v>6.053362</v>
+        <v>6.0533619999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>895.973000</v>
+        <v>895.97299999999996</v>
       </c>
       <c r="D14" s="1">
-        <v>-200.230000</v>
+        <v>-200.23</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>21802.539259</v>
+        <v>21802.539259000001</v>
       </c>
       <c r="G14" s="1">
-        <v>6.056261</v>
+        <v>6.0562610000000001</v>
       </c>
       <c r="H14" s="1">
-        <v>914.152000</v>
+        <v>914.15200000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.713000</v>
+        <v>-169.71299999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>21813.033085</v>
+        <v>21813.033084999999</v>
       </c>
       <c r="L14" s="1">
-        <v>6.059176</v>
+        <v>6.0591759999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>937.149000</v>
+        <v>937.149</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.935000</v>
+        <v>-119.935</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>21823.906879</v>
+        <v>21823.906878999998</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.062196</v>
+        <v>6.0621960000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>943.974000</v>
+        <v>943.97400000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.787000</v>
+        <v>-103.78700000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>21834.420113</v>
       </c>
       <c r="V14" s="1">
-        <v>6.065117</v>
+        <v>6.0651169999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>950.507000</v>
+        <v>950.50699999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.721300</v>
+        <v>-88.721299999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>21844.833091</v>
@@ -3640,769 +4056,769 @@
         <v>6.068009</v>
       </c>
       <c r="AB14" s="1">
-        <v>957.618000</v>
+        <v>957.61800000000005</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.138200</v>
+        <v>-77.138199999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>21855.200965</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.070889</v>
+        <v>6.0708890000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>962.324000</v>
+        <v>962.32399999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.008500</v>
+        <v>-75.008499999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>21865.679447</v>
+        <v>21865.679446999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.073800</v>
+        <v>6.0738000000000003</v>
       </c>
       <c r="AL14" s="1">
-        <v>969.543000</v>
+        <v>969.54300000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.934300</v>
+        <v>-79.934299999999993</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>21877.122676</v>
+        <v>21877.122675999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.076979</v>
+        <v>6.0769789999999997</v>
       </c>
       <c r="AQ14" s="1">
-        <v>977.682000</v>
+        <v>977.68200000000002</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.685600</v>
+        <v>-91.685599999999994</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>21888.201819</v>
+        <v>21888.201819000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>6.080056</v>
+        <v>6.0800559999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>987.608000</v>
+        <v>987.60799999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.598000</v>
+        <v>-109.598</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>21899.259099</v>
+        <v>21899.259098999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.083128</v>
+        <v>6.0831280000000003</v>
       </c>
       <c r="BA14" s="1">
-        <v>995.975000</v>
+        <v>995.97500000000002</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.366000</v>
+        <v>-125.366</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>21909.938470</v>
+        <v>21909.938470000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.086094</v>
+        <v>6.0860940000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1035.060000</v>
+        <v>1035.06</v>
       </c>
       <c r="BG14" s="1">
-        <v>-197.964000</v>
+        <v>-197.964</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>21920.441777</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.089012</v>
+        <v>6.0890120000000003</v>
       </c>
       <c r="BK14" s="1">
-        <v>1102.460000</v>
+        <v>1102.46</v>
       </c>
       <c r="BL14" s="1">
-        <v>-315.446000</v>
+        <v>-315.44600000000003</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>21930.762002</v>
+        <v>21930.762001999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>6.091878</v>
+        <v>6.0918780000000003</v>
       </c>
       <c r="BP14" s="1">
-        <v>1211.570000</v>
+        <v>1211.57</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-500.350000</v>
+        <v>-500.35</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>21942.064372</v>
+        <v>21942.064372000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.095018</v>
+        <v>6.0950179999999996</v>
       </c>
       <c r="BU14" s="1">
-        <v>1333.860000</v>
+        <v>1333.86</v>
       </c>
       <c r="BV14" s="1">
-        <v>-703.611000</v>
+        <v>-703.61099999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>21953.009060</v>
+        <v>21953.00906</v>
       </c>
       <c r="BY14" s="1">
         <v>6.098058</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1471.360000</v>
+        <v>1471.36</v>
       </c>
       <c r="CA14" s="1">
-        <v>-919.848000</v>
+        <v>-919.84799999999996</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>21965.149140</v>
+        <v>21965.149140000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.101430</v>
+        <v>6.1014299999999997</v>
       </c>
       <c r="CE14" s="1">
-        <v>1831.310000</v>
+        <v>1831.31</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1434.170000</v>
+        <v>-1434.17</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>21792.444681</v>
+        <v>21792.444681000001</v>
       </c>
       <c r="B15" s="1">
-        <v>6.053457</v>
+        <v>6.0534569999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>896.236000</v>
+        <v>896.23599999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-200.429000</v>
+        <v>-200.429</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>21803.228170</v>
+        <v>21803.228169999998</v>
       </c>
       <c r="G15" s="1">
-        <v>6.056452</v>
+        <v>6.0564520000000002</v>
       </c>
       <c r="H15" s="1">
-        <v>914.034000</v>
+        <v>914.03399999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-169.309000</v>
+        <v>-169.309</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>21813.722060</v>
+        <v>21813.72206</v>
       </c>
       <c r="L15" s="1">
-        <v>6.059367</v>
+        <v>6.0593669999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>937.151000</v>
+        <v>937.15099999999995</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.107000</v>
+        <v>-120.107</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>21824.255711</v>
+        <v>21824.255711000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>6.062293</v>
+        <v>6.0622930000000004</v>
       </c>
       <c r="R15" s="1">
-        <v>944.013000</v>
+        <v>944.01300000000003</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.791000</v>
+        <v>-103.791</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>21834.762320</v>
+        <v>21834.762320000002</v>
       </c>
       <c r="V15" s="1">
-        <v>6.065212</v>
+        <v>6.0652119999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>950.505000</v>
+        <v>950.505</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.670300</v>
+        <v>-88.670299999999997</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>21845.182276</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.068106</v>
+        <v>6.0681060000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>957.628000</v>
+        <v>957.62800000000004</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.150900</v>
+        <v>-77.150899999999993</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>21855.835861</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.071066</v>
+        <v>6.0710660000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>962.262000</v>
+        <v>962.26199999999994</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.018700</v>
+        <v>-75.018699999999995</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>21866.345576</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.073985</v>
+        <v>6.0739850000000004</v>
       </c>
       <c r="AL15" s="1">
-        <v>969.543000</v>
+        <v>969.54300000000001</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.922200</v>
+        <v>-79.922200000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>21877.524904</v>
+        <v>21877.524904000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.077090</v>
+        <v>6.0770900000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>977.658000</v>
+        <v>977.65800000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.692200</v>
+        <v>-91.6922</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>21888.565386</v>
+        <v>21888.565385999998</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.080157</v>
+        <v>6.0801569999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>987.624000</v>
+        <v>987.62400000000002</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.577000</v>
+        <v>-109.577</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>21899.638540</v>
+        <v>21899.63854</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6.083233</v>
+        <v>6.0832329999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>995.995000</v>
+        <v>995.995</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.381000</v>
+        <v>-125.381</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>21910.300076</v>
       </c>
       <c r="BE15" s="1">
-        <v>6.086194</v>
+        <v>6.0861939999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1035.070000</v>
+        <v>1035.07</v>
       </c>
       <c r="BG15" s="1">
-        <v>-197.959000</v>
+        <v>-197.959</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>21920.859406</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6.089128</v>
+        <v>6.0891279999999997</v>
       </c>
       <c r="BK15" s="1">
-        <v>1102.440000</v>
+        <v>1102.44</v>
       </c>
       <c r="BL15" s="1">
-        <v>-315.468000</v>
+        <v>-315.46800000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>21931.192563</v>
+        <v>21931.192563000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.091998</v>
+        <v>6.0919980000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1211.540000</v>
+        <v>1211.54</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-500.368000</v>
+        <v>-500.36799999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>21942.481506</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.095134</v>
+        <v>6.0951339999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1333.860000</v>
+        <v>1333.86</v>
       </c>
       <c r="BV15" s="1">
-        <v>-703.592000</v>
+        <v>-703.59199999999998</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>21953.498613</v>
       </c>
       <c r="BY15" s="1">
-        <v>6.098194</v>
+        <v>6.0981940000000003</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1471.340000</v>
+        <v>1471.34</v>
       </c>
       <c r="CA15" s="1">
-        <v>-919.812000</v>
+        <v>-919.81200000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>21965.674900</v>
+        <v>21965.674900000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.101576</v>
+        <v>6.1015759999999997</v>
       </c>
       <c r="CE15" s="1">
-        <v>1832.220000</v>
+        <v>1832.22</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1433.410000</v>
+        <v>-1433.41</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>21793.128137</v>
       </c>
       <c r="B16" s="1">
-        <v>6.053647</v>
+        <v>6.0536469999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>896.128000</v>
+        <v>896.12800000000004</v>
       </c>
       <c r="D16" s="1">
-        <v>-200.346000</v>
+        <v>-200.346</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>21803.572393</v>
+        <v>21803.572392999999</v>
       </c>
       <c r="G16" s="1">
-        <v>6.056548</v>
+        <v>6.0565480000000003</v>
       </c>
       <c r="H16" s="1">
-        <v>914.199000</v>
+        <v>914.19899999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>-169.371000</v>
+        <v>-169.37100000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>21814.068764</v>
       </c>
       <c r="L16" s="1">
-        <v>6.059464</v>
+        <v>6.0594640000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>937.342000</v>
+        <v>937.34199999999998</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.095000</v>
+        <v>-120.095</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>21824.606767</v>
+        <v>21824.606767000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.062391</v>
+        <v>6.0623909999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>944.009000</v>
+        <v>944.00900000000001</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.763000</v>
+        <v>-103.76300000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>21835.413098</v>
+        <v>21835.413098000001</v>
       </c>
       <c r="V16" s="1">
-        <v>6.065393</v>
+        <v>6.0653930000000003</v>
       </c>
       <c r="W16" s="1">
-        <v>950.527000</v>
+        <v>950.52700000000004</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.609600</v>
+        <v>-88.6096</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>21845.825089</v>
+        <v>21845.825089000002</v>
       </c>
       <c r="AA16" s="1">
-        <v>6.068285</v>
+        <v>6.0682850000000004</v>
       </c>
       <c r="AB16" s="1">
-        <v>957.659000</v>
+        <v>957.65899999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.091600</v>
+        <v>-77.0916</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>21856.231690</v>
+        <v>21856.231690000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.071175</v>
+        <v>6.0711750000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>962.273000</v>
+        <v>962.27300000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.151500</v>
+        <v>-75.151499999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>21866.727531</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.074091</v>
+        <v>6.0740910000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>969.551000</v>
+        <v>969.55100000000004</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.914000</v>
+        <v>-79.914000000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>21877.911816</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.077198</v>
+        <v>6.0771980000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>977.670000</v>
+        <v>977.67</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.685400</v>
+        <v>-91.685400000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>21888.929949</v>
+        <v>21888.929949000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.080258</v>
+        <v>6.0802579999999997</v>
       </c>
       <c r="AV16" s="1">
-        <v>987.626000</v>
+        <v>987.62599999999998</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.573000</v>
+        <v>-109.57299999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>21900.021978</v>
+        <v>21900.021978000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.083339</v>
+        <v>6.0833389999999996</v>
       </c>
       <c r="BA16" s="1">
-        <v>995.975000</v>
+        <v>995.97500000000002</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.374000</v>
+        <v>-125.374</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>21910.718668</v>
+        <v>21910.718668000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>6.086311</v>
+        <v>6.0863110000000002</v>
       </c>
       <c r="BF16" s="1">
-        <v>1035.080000</v>
+        <v>1035.08</v>
       </c>
       <c r="BG16" s="1">
-        <v>-197.950000</v>
+        <v>-197.95</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>21921.190740</v>
+        <v>21921.190739999998</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.089220</v>
+        <v>6.0892200000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1102.430000</v>
+        <v>1102.43</v>
       </c>
       <c r="BL16" s="1">
-        <v>-315.451000</v>
+        <v>-315.45100000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>21931.581392</v>
       </c>
       <c r="BO16" s="1">
-        <v>6.092106</v>
+        <v>6.0921060000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1211.530000</v>
+        <v>1211.53</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-500.375000</v>
+        <v>-500.375</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>21942.911011</v>
       </c>
       <c r="BT16" s="1">
-        <v>6.095253</v>
+        <v>6.0952529999999996</v>
       </c>
       <c r="BU16" s="1">
-        <v>1333.830000</v>
+        <v>1333.83</v>
       </c>
       <c r="BV16" s="1">
-        <v>-703.506000</v>
+        <v>-703.50599999999997</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>21953.874579</v>
+        <v>21953.874578999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.098298</v>
+        <v>6.0982979999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1471.230000</v>
+        <v>1471.23</v>
       </c>
       <c r="CA16" s="1">
-        <v>-919.680000</v>
+        <v>-919.68</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>21966.195699</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.101721</v>
+        <v>6.1017210000000004</v>
       </c>
       <c r="CE16" s="1">
-        <v>1830.600000</v>
+        <v>1830.6</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1432.820000</v>
+        <v>-1432.82</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>21793.471895</v>
+        <v>21793.471894999999</v>
       </c>
       <c r="B17" s="1">
-        <v>6.053742</v>
+        <v>6.0537419999999997</v>
       </c>
       <c r="C17" s="1">
-        <v>896.120000</v>
+        <v>896.12</v>
       </c>
       <c r="D17" s="1">
-        <v>-200.362000</v>
+        <v>-200.36199999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>21803.921082</v>
+        <v>21803.921082000001</v>
       </c>
       <c r="G17" s="1">
-        <v>6.056645</v>
+        <v>6.0566449999999996</v>
       </c>
       <c r="H17" s="1">
-        <v>914.027000</v>
+        <v>914.02700000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-169.558000</v>
+        <v>-169.55799999999999</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>21814.418908</v>
       </c>
       <c r="L17" s="1">
-        <v>6.059561</v>
+        <v>6.0595610000000004</v>
       </c>
       <c r="M17" s="1">
-        <v>937.253000</v>
+        <v>937.25300000000004</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.029000</v>
+        <v>-120.029</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>21825.263469</v>
+        <v>21825.263469000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.062573</v>
+        <v>6.0625730000000004</v>
       </c>
       <c r="R17" s="1">
-        <v>944.045000</v>
+        <v>944.04499999999996</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.843000</v>
+        <v>-103.843</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>21835.795023</v>
+        <v>21835.795022999999</v>
       </c>
       <c r="V17" s="1">
         <v>6.065499</v>
       </c>
       <c r="W17" s="1">
-        <v>950.499000</v>
+        <v>950.49900000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.750400</v>
+        <v>-88.750399999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>21846.227842</v>
@@ -4411,163 +4827,163 @@
         <v>6.068397</v>
       </c>
       <c r="AB17" s="1">
-        <v>957.652000</v>
+        <v>957.65200000000004</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.134900</v>
+        <v>-77.134900000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>21856.577363</v>
       </c>
       <c r="AF17" s="1">
-        <v>6.071271</v>
+        <v>6.0712710000000003</v>
       </c>
       <c r="AG17" s="1">
-        <v>962.343000</v>
+        <v>962.34299999999996</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.100200</v>
+        <v>-75.100200000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>21867.075722</v>
+        <v>21867.075722000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.074188</v>
+        <v>6.0741880000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>969.565000</v>
+        <v>969.56500000000005</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.902100</v>
+        <v>-79.902100000000004</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>21878.271415</v>
+        <v>21878.271414999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>6.077298</v>
+        <v>6.0772979999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>977.656000</v>
+        <v>977.65599999999995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.690600</v>
+        <v>-91.690600000000003</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>21889.347546</v>
+        <v>21889.347546000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>6.080374</v>
+        <v>6.0803739999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>987.607000</v>
+        <v>987.60699999999997</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.575000</v>
+        <v>-109.575</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>21900.434122</v>
+        <v>21900.434121999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>6.083454</v>
+        <v>6.0834539999999997</v>
       </c>
       <c r="BA17" s="1">
-        <v>995.971000</v>
+        <v>995.971</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.363000</v>
+        <v>-125.363</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>21911.020731</v>
+        <v>21911.020731000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>6.086395</v>
+        <v>6.0863950000000004</v>
       </c>
       <c r="BF17" s="1">
-        <v>1035.090000</v>
+        <v>1035.0899999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-197.959000</v>
+        <v>-197.959</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>21921.567197</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.089324</v>
+        <v>6.0893240000000004</v>
       </c>
       <c r="BK17" s="1">
-        <v>1102.450000</v>
+        <v>1102.45</v>
       </c>
       <c r="BL17" s="1">
-        <v>-315.428000</v>
+        <v>-315.428</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>21931.976208</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.092216</v>
+        <v>6.0922159999999996</v>
       </c>
       <c r="BP17" s="1">
-        <v>1211.520000</v>
+        <v>1211.52</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-500.365000</v>
+        <v>-500.36500000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>21943.320209</v>
+        <v>21943.320209000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.095367</v>
+        <v>6.0953670000000004</v>
       </c>
       <c r="BU17" s="1">
-        <v>1333.850000</v>
+        <v>1333.85</v>
       </c>
       <c r="BV17" s="1">
-        <v>-703.454000</v>
+        <v>-703.45399999999995</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>21954.298695</v>
+        <v>21954.298695000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>6.098416</v>
+        <v>6.0984160000000003</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1471.240000</v>
+        <v>1471.24</v>
       </c>
       <c r="CA17" s="1">
-        <v>-919.620000</v>
+        <v>-919.62</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>21966.733892</v>
@@ -4576,437 +4992,437 @@
         <v>6.101871</v>
       </c>
       <c r="CE17" s="1">
-        <v>1831.810000</v>
+        <v>1831.81</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1434.100000</v>
+        <v>-1434.1</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>21793.813638</v>
       </c>
       <c r="B18" s="1">
-        <v>6.053837</v>
+        <v>6.0538369999999997</v>
       </c>
       <c r="C18" s="1">
-        <v>895.980000</v>
+        <v>895.98</v>
       </c>
       <c r="D18" s="1">
-        <v>-200.453000</v>
+        <v>-200.453</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>21804.566874</v>
       </c>
       <c r="G18" s="1">
-        <v>6.056824</v>
+        <v>6.0568239999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>914.150000</v>
+        <v>914.15</v>
       </c>
       <c r="I18" s="1">
-        <v>-169.340000</v>
+        <v>-169.34</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>21815.064699</v>
+        <v>21815.064698999999</v>
       </c>
       <c r="L18" s="1">
-        <v>6.059740</v>
+        <v>6.0597399999999997</v>
       </c>
       <c r="M18" s="1">
-        <v>937.147000</v>
+        <v>937.14700000000005</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.331000</v>
+        <v>-120.331</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>21825.650317</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.062681</v>
+        <v>6.0626810000000004</v>
       </c>
       <c r="R18" s="1">
-        <v>943.966000</v>
+        <v>943.96600000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.818000</v>
+        <v>-103.818</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>21836.136239</v>
+        <v>21836.136238999999</v>
       </c>
       <c r="V18" s="1">
-        <v>6.065593</v>
+        <v>6.0655929999999998</v>
       </c>
       <c r="W18" s="1">
-        <v>950.563000</v>
+        <v>950.56299999999999</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.674200</v>
+        <v>-88.674199999999999</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>21846.578018</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.068494</v>
+        <v>6.0684940000000003</v>
       </c>
       <c r="AB18" s="1">
-        <v>957.576000</v>
+        <v>957.57600000000002</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.085800</v>
+        <v>-77.085800000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>21856.925556</v>
+        <v>21856.925555999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>6.071368</v>
+        <v>6.0713679999999997</v>
       </c>
       <c r="AG18" s="1">
-        <v>962.310000</v>
+        <v>962.31</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.034500</v>
+        <v>-75.034499999999994</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>21867.424377</v>
+        <v>21867.424376999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.074285</v>
+        <v>6.0742849999999997</v>
       </c>
       <c r="AL18" s="1">
-        <v>969.551000</v>
+        <v>969.55100000000004</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.907600</v>
+        <v>-79.907600000000002</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>21878.692982</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.077415</v>
+        <v>6.0774150000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>977.650000</v>
+        <v>977.65</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.707800</v>
+        <v>-91.707800000000006</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>21889.656552</v>
       </c>
       <c r="AU18" s="1">
-        <v>6.080460</v>
+        <v>6.0804600000000004</v>
       </c>
       <c r="AV18" s="1">
-        <v>987.630000</v>
+        <v>987.63</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.576000</v>
+        <v>-109.57599999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>21900.740687</v>
+        <v>21900.740687000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>6.083539</v>
       </c>
       <c r="BA18" s="1">
-        <v>995.984000</v>
+        <v>995.98400000000004</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.381000</v>
+        <v>-125.381</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>21911.383307</v>
       </c>
       <c r="BE18" s="1">
-        <v>6.086495</v>
+        <v>6.0864950000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1035.060000</v>
+        <v>1035.06</v>
       </c>
       <c r="BG18" s="1">
-        <v>-197.967000</v>
+        <v>-197.96700000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>21921.941149</v>
+        <v>21921.941148999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.089428</v>
+        <v>6.0894279999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1102.440000</v>
+        <v>1102.44</v>
       </c>
       <c r="BL18" s="1">
-        <v>-315.474000</v>
+        <v>-315.47399999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>21932.397311</v>
+        <v>21932.397311000001</v>
       </c>
       <c r="BO18" s="1">
         <v>6.092333</v>
       </c>
       <c r="BP18" s="1">
-        <v>1211.580000</v>
+        <v>1211.58</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-500.405000</v>
+        <v>-500.40499999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>21943.753750</v>
+        <v>21943.75375</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.095487</v>
+        <v>6.0954870000000003</v>
       </c>
       <c r="BU18" s="1">
-        <v>1333.770000</v>
+        <v>1333.77</v>
       </c>
       <c r="BV18" s="1">
-        <v>-703.414000</v>
+        <v>-703.41399999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>21954.719797</v>
+        <v>21954.719797000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.098533</v>
+        <v>6.0985329999999998</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1471.240000</v>
+        <v>1471.24</v>
       </c>
       <c r="CA18" s="1">
-        <v>-919.731000</v>
+        <v>-919.73099999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>21967.274498</v>
+        <v>21967.274497999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>6.102021</v>
+        <v>6.1020209999999997</v>
       </c>
       <c r="CE18" s="1">
-        <v>1831.750000</v>
+        <v>1831.75</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1432.450000</v>
+        <v>-1432.45</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>21794.457414</v>
       </c>
       <c r="B19" s="1">
-        <v>6.054016</v>
+        <v>6.0540159999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>896.299000</v>
+        <v>896.29899999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-200.462000</v>
+        <v>-200.46199999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>21804.955240</v>
+        <v>21804.955239999999</v>
       </c>
       <c r="G19" s="1">
-        <v>6.056932</v>
+        <v>6.0569319999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>914.113000</v>
+        <v>914.11300000000006</v>
       </c>
       <c r="I19" s="1">
-        <v>-169.863000</v>
+        <v>-169.863</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>21815.472411</v>
+        <v>21815.472410999999</v>
       </c>
       <c r="L19" s="1">
-        <v>6.059853</v>
+        <v>6.0598530000000004</v>
       </c>
       <c r="M19" s="1">
-        <v>937.552000</v>
+        <v>937.55200000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.981000</v>
+        <v>-119.98099999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>21825.999500</v>
+        <v>21825.999500000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.062778</v>
+        <v>6.0627779999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>943.981000</v>
+        <v>943.98099999999999</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.793000</v>
+        <v>-103.79300000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>21836.477983</v>
+        <v>21836.477983000001</v>
       </c>
       <c r="V19" s="1">
-        <v>6.065688</v>
+        <v>6.0656879999999997</v>
       </c>
       <c r="W19" s="1">
-        <v>950.511000</v>
+        <v>950.51099999999997</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.715000</v>
+        <v>-88.715000000000003</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>21846.925712</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.068590</v>
+        <v>6.0685900000000004</v>
       </c>
       <c r="AB19" s="1">
-        <v>957.655000</v>
+        <v>957.65499999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.084800</v>
+        <v>-77.084800000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>21857.348642</v>
+        <v>21857.348642000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.071486</v>
+        <v>6.0714860000000002</v>
       </c>
       <c r="AG19" s="1">
-        <v>962.269000</v>
+        <v>962.26900000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.013800</v>
+        <v>-75.013800000000003</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>21868.122777</v>
       </c>
       <c r="AK19" s="1">
-        <v>6.074479</v>
+        <v>6.0744790000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>969.566000</v>
+        <v>969.56600000000003</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.924000</v>
+        <v>-79.924000000000007</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>21878.990614</v>
+        <v>21878.990613999998</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.077497</v>
+        <v>6.0774970000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>977.640000</v>
+        <v>977.64</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.709700</v>
+        <v>-91.709699999999998</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>21890.024087</v>
+        <v>21890.024087000002</v>
       </c>
       <c r="AU19" s="1">
-        <v>6.080562</v>
+        <v>6.0805619999999996</v>
       </c>
       <c r="AV19" s="1">
-        <v>987.630000</v>
+        <v>987.63</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.579000</v>
+        <v>-109.57899999999999</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>21901.105705</v>
+        <v>21901.105705000002</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.083640</v>
+        <v>6.0836399999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>995.962000</v>
+        <v>995.96199999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.361000</v>
+        <v>-125.361</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>21911.743402</v>
@@ -5015,619 +5431,619 @@
         <v>6.086595</v>
       </c>
       <c r="BF19" s="1">
-        <v>1035.060000</v>
+        <v>1035.06</v>
       </c>
       <c r="BG19" s="1">
-        <v>-197.966000</v>
+        <v>-197.96600000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>21922.350845</v>
+        <v>21922.350845000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.089542</v>
+        <v>6.0895419999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1102.470000</v>
+        <v>1102.47</v>
       </c>
       <c r="BL19" s="1">
-        <v>-315.444000</v>
+        <v>-315.44400000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>21933.209790</v>
+        <v>21933.209790000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>6.092558</v>
+        <v>6.0925580000000004</v>
       </c>
       <c r="BP19" s="1">
-        <v>1211.590000</v>
+        <v>1211.5899999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-500.397000</v>
+        <v>-500.39699999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>21944.179776</v>
+        <v>21944.179776000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>6.095605</v>
+        <v>6.0956049999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1333.780000</v>
+        <v>1333.78</v>
       </c>
       <c r="BV19" s="1">
-        <v>-703.413000</v>
+        <v>-703.41300000000001</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>21955.143345</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.098651</v>
+        <v>6.0986510000000003</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1471.360000</v>
+        <v>1471.36</v>
       </c>
       <c r="CA19" s="1">
-        <v>-919.744000</v>
+        <v>-919.74400000000003</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>21967.816626</v>
       </c>
       <c r="CD19" s="1">
-        <v>6.102171</v>
+        <v>6.1021710000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>1830.800000</v>
+        <v>1830.8</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1433.750000</v>
+        <v>-1433.75</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>21794.836853</v>
+        <v>21794.836853000001</v>
       </c>
       <c r="B20" s="1">
-        <v>6.054121</v>
+        <v>6.0541210000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>896.160000</v>
+        <v>896.16</v>
       </c>
       <c r="D20" s="1">
-        <v>-200.542000</v>
+        <v>-200.542</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>21805.300457</v>
+        <v>21805.300457000001</v>
       </c>
       <c r="G20" s="1">
-        <v>6.057028</v>
+        <v>6.0570279999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>914.050000</v>
+        <v>914.05</v>
       </c>
       <c r="I20" s="1">
-        <v>-169.116000</v>
+        <v>-169.11600000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>21815.799771</v>
+        <v>21815.799771000002</v>
       </c>
       <c r="L20" s="1">
-        <v>6.059944</v>
+        <v>6.0599439999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>937.336000</v>
+        <v>937.33600000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.929000</v>
+        <v>-119.929</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>21826.347692</v>
+        <v>21826.347691999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.062874</v>
+        <v>6.0628739999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>944.013000</v>
+        <v>944.01300000000003</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.770000</v>
+        <v>-103.77</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>21836.897597</v>
+        <v>21836.897596999999</v>
       </c>
       <c r="V20" s="1">
-        <v>6.065805</v>
+        <v>6.0658050000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>950.573000</v>
+        <v>950.57299999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.671200</v>
+        <v>-88.671199999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>21847.334415</v>
+        <v>21847.334415000001</v>
       </c>
       <c r="AA20" s="1">
-        <v>6.068704</v>
+        <v>6.0687040000000003</v>
       </c>
       <c r="AB20" s="1">
-        <v>957.671000</v>
+        <v>957.67100000000005</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.103800</v>
+        <v>-77.103800000000007</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>21857.627432</v>
+        <v>21857.627432000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.071563</v>
+        <v>6.0715630000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>962.257000</v>
+        <v>962.25699999999995</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.036900</v>
+        <v>-75.036900000000003</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>21868.471466</v>
+        <v>21868.471465999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.074575</v>
+        <v>6.0745750000000003</v>
       </c>
       <c r="AL20" s="1">
-        <v>969.544000</v>
+        <v>969.54399999999998</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.907800</v>
+        <v>-79.907799999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>21879.352662</v>
+        <v>21879.352662000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.077598</v>
+        <v>6.0775980000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>977.652000</v>
+        <v>977.65200000000004</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.715600</v>
+        <v>-91.715599999999995</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>21890.389639</v>
+        <v>21890.389639000001</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.080664</v>
+        <v>6.0806639999999996</v>
       </c>
       <c r="AV20" s="1">
-        <v>987.647000</v>
+        <v>987.64700000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.556000</v>
+        <v>-109.556</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>21901.460346</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.083739</v>
+        <v>6.0837389999999996</v>
       </c>
       <c r="BA20" s="1">
-        <v>995.988000</v>
+        <v>995.98800000000006</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.376000</v>
+        <v>-125.376</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>21912.467067</v>
+        <v>21912.467067000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.086796</v>
+        <v>6.0867959999999997</v>
       </c>
       <c r="BF20" s="1">
-        <v>1035.070000</v>
+        <v>1035.07</v>
       </c>
       <c r="BG20" s="1">
-        <v>-197.971000</v>
+        <v>-197.971</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>21922.716892</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.089644</v>
+        <v>6.0896439999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1102.460000</v>
+        <v>1102.46</v>
       </c>
       <c r="BL20" s="1">
-        <v>-315.451000</v>
+        <v>-315.45100000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>21933.630894</v>
+        <v>21933.630894000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.092675</v>
+        <v>6.0926749999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1211.580000</v>
+        <v>1211.58</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-500.384000</v>
+        <v>-500.38400000000001</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>21944.592960</v>
+        <v>21944.592960000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.095720</v>
+        <v>6.09572</v>
       </c>
       <c r="BU20" s="1">
-        <v>1333.800000</v>
+        <v>1333.8</v>
       </c>
       <c r="BV20" s="1">
-        <v>-703.301000</v>
+        <v>-703.30100000000004</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>21955.867008</v>
+        <v>21955.867008000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.098852</v>
+        <v>6.0988519999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1471.360000</v>
+        <v>1471.36</v>
       </c>
       <c r="CA20" s="1">
-        <v>-919.673000</v>
+        <v>-919.673</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>21968.647423</v>
+        <v>21968.647422999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>6.102402</v>
+        <v>6.1024019999999997</v>
       </c>
       <c r="CE20" s="1">
-        <v>1831.100000</v>
+        <v>1831.1</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1432.640000</v>
+        <v>-1432.64</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>21795.179126</v>
+        <v>21795.179125999999</v>
       </c>
       <c r="B21" s="1">
-        <v>6.054216</v>
+        <v>6.0542160000000003</v>
       </c>
       <c r="C21" s="1">
-        <v>896.187000</v>
+        <v>896.18700000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-200.405000</v>
+        <v>-200.405</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>21805.643687</v>
       </c>
       <c r="G21" s="1">
-        <v>6.057123</v>
+        <v>6.0571229999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>913.937000</v>
+        <v>913.93700000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.566000</v>
+        <v>-169.566</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>21816.367193</v>
+        <v>21816.367192999998</v>
       </c>
       <c r="L21" s="1">
-        <v>6.060102</v>
+        <v>6.0601019999999997</v>
       </c>
       <c r="M21" s="1">
-        <v>937.380000</v>
+        <v>937.38</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.171000</v>
+        <v>-120.17100000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>21826.762844</v>
+        <v>21826.762844000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>6.062990</v>
+        <v>6.0629900000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>944.037000</v>
+        <v>944.03700000000003</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.770000</v>
+        <v>-103.77</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>21837.170397</v>
+        <v>21837.170397000002</v>
       </c>
       <c r="V21" s="1">
-        <v>6.065881</v>
+        <v>6.0658810000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>950.572000</v>
+        <v>950.572</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.709300</v>
+        <v>-88.709299999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>21847.632049</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.068787</v>
+        <v>6.0687870000000004</v>
       </c>
       <c r="AB21" s="1">
-        <v>957.693000</v>
+        <v>957.69299999999998</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.120600</v>
+        <v>-77.120599999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>21857.972152</v>
+        <v>21857.972151999998</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.071659</v>
+        <v>6.0716590000000004</v>
       </c>
       <c r="AG21" s="1">
-        <v>962.263000</v>
+        <v>962.26300000000003</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.035000</v>
+        <v>-75.034999999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>21868.818419</v>
+        <v>21868.818418999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.074672</v>
+        <v>6.0746719999999996</v>
       </c>
       <c r="AL21" s="1">
-        <v>969.548000</v>
+        <v>969.548</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.910500</v>
+        <v>-79.910499999999999</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>21879.712757</v>
+        <v>21879.712757000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.077698</v>
+        <v>6.0776979999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>977.650000</v>
+        <v>977.65</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.713700</v>
+        <v>-91.713700000000003</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>21891.116395</v>
+        <v>21891.116395000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>6.080866</v>
+        <v>6.0808660000000003</v>
       </c>
       <c r="AV21" s="1">
-        <v>987.621000</v>
+        <v>987.62099999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.573000</v>
+        <v>-109.57299999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>21902.231135</v>
+        <v>21902.231135000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.083953</v>
+        <v>6.0839530000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>995.974000</v>
+        <v>995.97400000000005</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.367000</v>
+        <v>-125.367</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>21912.828689</v>
+        <v>21912.828689000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.086897</v>
+        <v>6.0868969999999996</v>
       </c>
       <c r="BF21" s="1">
-        <v>1035.060000</v>
+        <v>1035.06</v>
       </c>
       <c r="BG21" s="1">
-        <v>-197.976000</v>
+        <v>-197.976</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>21923.086413</v>
+        <v>21923.086413000001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.089746</v>
+        <v>6.0897459999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1102.440000</v>
+        <v>1102.44</v>
       </c>
       <c r="BL21" s="1">
-        <v>-315.448000</v>
+        <v>-315.44799999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>21934.026201</v>
+        <v>21934.026201000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.092785</v>
+        <v>6.0927850000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1211.620000</v>
+        <v>1211.6199999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-500.361000</v>
+        <v>-500.36099999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>21945.333007</v>
+        <v>21945.333007000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.095926</v>
+        <v>6.0959260000000004</v>
       </c>
       <c r="BU21" s="1">
-        <v>1333.890000</v>
+        <v>1333.89</v>
       </c>
       <c r="BV21" s="1">
-        <v>-703.349000</v>
+        <v>-703.34900000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>21955.986048</v>
+        <v>21955.986047999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>6.098885</v>
+        <v>6.0988850000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1471.290000</v>
+        <v>1471.29</v>
       </c>
       <c r="CA21" s="1">
-        <v>-919.701000</v>
+        <v>-919.70100000000002</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>21968.894433</v>
+        <v>21968.894433000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>6.102471</v>
+        <v>6.1024710000000004</v>
       </c>
       <c r="CE21" s="1">
-        <v>1831.420000</v>
+        <v>1831.42</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1432.380000</v>
+        <v>-1432.38</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>21795.522363</v>
       </c>
       <c r="B22" s="1">
-        <v>6.054312</v>
+        <v>6.0543120000000004</v>
       </c>
       <c r="C22" s="1">
-        <v>896.050000</v>
+        <v>896.05</v>
       </c>
       <c r="D22" s="1">
-        <v>-200.496000</v>
+        <v>-200.49600000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>21806.061318</v>
@@ -5636,88 +6052,88 @@
         <v>6.057239</v>
       </c>
       <c r="H22" s="1">
-        <v>914.079000</v>
+        <v>914.07899999999995</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.573000</v>
+        <v>-169.57300000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>21816.489895</v>
+        <v>21816.489894999999</v>
       </c>
       <c r="L22" s="1">
         <v>6.060136</v>
       </c>
       <c r="M22" s="1">
-        <v>937.417000</v>
+        <v>937.41700000000003</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.295000</v>
+        <v>-120.295</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>21827.055482</v>
       </c>
       <c r="Q22" s="1">
-        <v>6.063071</v>
+        <v>6.0630709999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>944.004000</v>
+        <v>944.00400000000002</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.803000</v>
+        <v>-103.803</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>21837.512173</v>
+        <v>21837.512172999999</v>
       </c>
       <c r="V22" s="1">
         <v>6.065976</v>
       </c>
       <c r="W22" s="1">
-        <v>950.543000</v>
+        <v>950.54300000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.715800</v>
+        <v>-88.715800000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>21847.976736</v>
+        <v>21847.976736000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>6.068882</v>
+        <v>6.0688820000000003</v>
       </c>
       <c r="AB22" s="1">
-        <v>957.667000</v>
+        <v>957.66700000000003</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.080700</v>
+        <v>-77.080699999999993</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>21858.313361</v>
       </c>
       <c r="AF22" s="1">
-        <v>6.071754</v>
+        <v>6.0717540000000003</v>
       </c>
       <c r="AG22" s="1">
-        <v>962.315000</v>
+        <v>962.31500000000005</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.052800</v>
+        <v>-75.052800000000005</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>21869.515507</v>
@@ -5726,151 +6142,151 @@
         <v>6.074865</v>
       </c>
       <c r="AL22" s="1">
-        <v>969.559000</v>
+        <v>969.55899999999997</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.920700</v>
+        <v>-79.920699999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>21880.430964</v>
+        <v>21880.430963999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.077897</v>
+        <v>6.0778970000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>977.644000</v>
+        <v>977.64400000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.700700</v>
+        <v>-91.700699999999998</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>21891.511130</v>
+        <v>21891.511129999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.080975</v>
+        <v>6.0809749999999996</v>
       </c>
       <c r="AV22" s="1">
-        <v>987.634000</v>
+        <v>987.63400000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.575000</v>
+        <v>-109.575</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>21902.536199</v>
+        <v>21902.536198999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.084038</v>
+        <v>6.0840379999999996</v>
       </c>
       <c r="BA22" s="1">
-        <v>995.976000</v>
+        <v>995.976</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.375000</v>
+        <v>-125.375</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>21913.188746</v>
       </c>
       <c r="BE22" s="1">
-        <v>6.086997</v>
+        <v>6.0869970000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1035.070000</v>
+        <v>1035.07</v>
       </c>
       <c r="BG22" s="1">
-        <v>-197.978000</v>
+        <v>-197.97800000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>21923.772380</v>
+        <v>21923.772379999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.089937</v>
+        <v>6.0899369999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1102.460000</v>
+        <v>1102.46</v>
       </c>
       <c r="BL22" s="1">
-        <v>-315.452000</v>
+        <v>-315.452</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>21934.769676</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.092992</v>
+        <v>6.0929919999999997</v>
       </c>
       <c r="BP22" s="1">
-        <v>1211.570000</v>
+        <v>1211.57</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-500.402000</v>
+        <v>-500.40199999999999</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>21945.453502</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.095959</v>
+        <v>6.0959589999999997</v>
       </c>
       <c r="BU22" s="1">
-        <v>1333.860000</v>
+        <v>1333.86</v>
       </c>
       <c r="BV22" s="1">
-        <v>-703.278000</v>
+        <v>-703.27800000000002</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>21956.418561</v>
+        <v>21956.418560999999</v>
       </c>
       <c r="BY22" s="1">
         <v>6.099005</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1471.400000</v>
+        <v>1471.4</v>
       </c>
       <c r="CA22" s="1">
-        <v>-919.737000</v>
+        <v>-919.73699999999997</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>21969.412256</v>
       </c>
       <c r="CD22" s="1">
-        <v>6.102615</v>
+        <v>6.1026150000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1830.620000</v>
+        <v>1830.62</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1433.800000</v>
+        <v>-1433.8</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>21795.925573</v>
       </c>
@@ -5878,73 +6294,73 @@
         <v>6.054424</v>
       </c>
       <c r="C23" s="1">
-        <v>896.259000</v>
+        <v>896.25900000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-200.495000</v>
+        <v>-200.495</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>21806.342550</v>
+        <v>21806.342550000001</v>
       </c>
       <c r="G23" s="1">
-        <v>6.057317</v>
+        <v>6.0573170000000003</v>
       </c>
       <c r="H23" s="1">
-        <v>913.773000</v>
+        <v>913.77300000000002</v>
       </c>
       <c r="I23" s="1">
-        <v>-169.830000</v>
+        <v>-169.83</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>21816.835416</v>
+        <v>21816.835416000002</v>
       </c>
       <c r="L23" s="1">
-        <v>6.060232</v>
+        <v>6.0602320000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>937.080000</v>
+        <v>937.08</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.964000</v>
+        <v>-119.964</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>21827.404666</v>
+        <v>21827.404665999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>6.063168</v>
+        <v>6.0631680000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>944.035000</v>
+        <v>944.03499999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.797000</v>
+        <v>-103.797</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>21837.858348</v>
+        <v>21837.858348000002</v>
       </c>
       <c r="V23" s="1">
-        <v>6.066072</v>
+        <v>6.0660720000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>950.561000</v>
+        <v>950.56100000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.716000</v>
+        <v>-88.715999999999994</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>21848.329886</v>
@@ -5953,148 +6369,148 @@
         <v>6.068981</v>
       </c>
       <c r="AB23" s="1">
-        <v>957.623000</v>
+        <v>957.62300000000005</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.164800</v>
+        <v>-77.1648</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>21859.000816</v>
       </c>
       <c r="AF23" s="1">
-        <v>6.071945</v>
+        <v>6.0719450000000004</v>
       </c>
       <c r="AG23" s="1">
-        <v>962.333000</v>
+        <v>962.33299999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.033000</v>
+        <v>-75.033000000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>21869.862738</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.074962</v>
+        <v>6.0749620000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>969.556000</v>
+        <v>969.55600000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.933300</v>
+        <v>-79.933300000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>21880.790068</v>
+        <v>21880.790067999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.077997</v>
+        <v>6.0779969999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>977.650000</v>
+        <v>977.65</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.697600</v>
+        <v>-91.697599999999994</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>21891.877142</v>
+        <v>21891.877142000001</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.081077</v>
+        <v>6.0810769999999996</v>
       </c>
       <c r="AV23" s="1">
-        <v>987.629000</v>
+        <v>987.62900000000002</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.584000</v>
+        <v>-109.584</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>21903.195846</v>
+        <v>21903.195845999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.084221</v>
+        <v>6.0842210000000003</v>
       </c>
       <c r="BA23" s="1">
-        <v>995.983000</v>
+        <v>995.98299999999995</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.377000</v>
+        <v>-125.377</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>21913.861848</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.087184</v>
+        <v>6.0871839999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1035.090000</v>
+        <v>1035.0899999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-197.959000</v>
+        <v>-197.959</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>21924.220281</v>
+        <v>21924.220281000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>6.090061</v>
+        <v>6.0900610000000004</v>
       </c>
       <c r="BK23" s="1">
-        <v>1102.470000</v>
+        <v>1102.47</v>
       </c>
       <c r="BL23" s="1">
-        <v>-315.481000</v>
+        <v>-315.48099999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>21935.269148</v>
+        <v>21935.269147999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>6.093130</v>
+        <v>6.0931300000000004</v>
       </c>
       <c r="BP23" s="1">
-        <v>1211.540000</v>
+        <v>1211.54</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-500.385000</v>
+        <v>-500.38499999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>21945.863230</v>
+        <v>21945.863229999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.096073</v>
+        <v>6.0960729999999996</v>
       </c>
       <c r="BU23" s="1">
-        <v>1333.880000</v>
+        <v>1333.88</v>
       </c>
       <c r="BV23" s="1">
-        <v>-703.215000</v>
+        <v>-703.21500000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>21956.875904</v>
@@ -6103,195 +6519,195 @@
         <v>6.099132</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1471.350000</v>
+        <v>1471.35</v>
       </c>
       <c r="CA23" s="1">
-        <v>-919.751000</v>
+        <v>-919.75099999999998</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>21969.930574</v>
+        <v>21969.930574000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>6.102758</v>
+        <v>6.1027579999999997</v>
       </c>
       <c r="CE23" s="1">
-        <v>1832.290000</v>
+        <v>1832.29</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1433.970000</v>
+        <v>-1433.97</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>21796.224898</v>
       </c>
       <c r="B24" s="1">
-        <v>6.054507</v>
+        <v>6.0545070000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>896.178000</v>
+        <v>896.178</v>
       </c>
       <c r="D24" s="1">
-        <v>-200.357000</v>
+        <v>-200.357</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>21806.684789</v>
+        <v>21806.684788999999</v>
       </c>
       <c r="G24" s="1">
-        <v>6.057412</v>
+        <v>6.0574120000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>914.161000</v>
+        <v>914.16099999999994</v>
       </c>
       <c r="I24" s="1">
-        <v>-169.547000</v>
+        <v>-169.547</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>21817.179175</v>
+        <v>21817.179175000001</v>
       </c>
       <c r="L24" s="1">
-        <v>6.060328</v>
+        <v>6.0603280000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>937.214000</v>
+        <v>937.21400000000006</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.078000</v>
+        <v>-120.078</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>21827.753354</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.063265</v>
+        <v>6.0632650000000003</v>
       </c>
       <c r="R24" s="1">
-        <v>943.988000</v>
+        <v>943.98800000000006</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.783000</v>
+        <v>-103.783</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>21838.540348</v>
+        <v>21838.540347999999</v>
       </c>
       <c r="V24" s="1">
-        <v>6.066261</v>
+        <v>6.0662609999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>950.565000</v>
+        <v>950.56500000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.627300</v>
+        <v>-88.627300000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>21849.022797</v>
+        <v>21849.022797000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>6.069173</v>
+        <v>6.0691730000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>957.656000</v>
+        <v>957.65599999999995</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.082300</v>
+        <v>-77.082300000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>21859.345041</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.072040</v>
+        <v>6.0720400000000003</v>
       </c>
       <c r="AG24" s="1">
-        <v>962.306000</v>
+        <v>962.30600000000004</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.027200</v>
+        <v>-75.027199999999993</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>21870.212883</v>
       </c>
       <c r="AK24" s="1">
-        <v>6.075059</v>
+        <v>6.0750590000000004</v>
       </c>
       <c r="AL24" s="1">
-        <v>969.559000</v>
+        <v>969.55899999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.891200</v>
+        <v>-79.891199999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>21881.152185</v>
+        <v>21881.152184999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.078098</v>
+        <v>6.0780979999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>977.644000</v>
+        <v>977.64400000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.695800</v>
+        <v>-91.695800000000006</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>21892.544757</v>
       </c>
       <c r="AU24" s="1">
-        <v>6.081262</v>
+        <v>6.0812619999999997</v>
       </c>
       <c r="AV24" s="1">
-        <v>987.640000</v>
+        <v>987.64</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.573000</v>
+        <v>-109.57299999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>21903.648552</v>
+        <v>21903.648551999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.084347</v>
+        <v>6.0843470000000002</v>
       </c>
       <c r="BA24" s="1">
-        <v>995.991000</v>
+        <v>995.99099999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.368000</v>
+        <v>-125.36799999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>21914.304279</v>
@@ -6300,392 +6716,392 @@
         <v>6.087307</v>
       </c>
       <c r="BF24" s="1">
-        <v>1035.070000</v>
+        <v>1035.07</v>
       </c>
       <c r="BG24" s="1">
-        <v>-197.965000</v>
+        <v>-197.965</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>21924.592762</v>
       </c>
       <c r="BJ24" s="1">
-        <v>6.090165</v>
+        <v>6.0901649999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1102.470000</v>
+        <v>1102.47</v>
       </c>
       <c r="BL24" s="1">
-        <v>-315.437000</v>
+        <v>-315.43700000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>21935.687312</v>
+        <v>21935.687311999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>6.093246</v>
+        <v>6.0932459999999997</v>
       </c>
       <c r="BP24" s="1">
-        <v>1211.540000</v>
+        <v>1211.54</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-500.392000</v>
+        <v>-500.392</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>21946.296702</v>
       </c>
       <c r="BT24" s="1">
-        <v>6.096194</v>
+        <v>6.0961939999999997</v>
       </c>
       <c r="BU24" s="1">
-        <v>1333.860000</v>
+        <v>1333.86</v>
       </c>
       <c r="BV24" s="1">
-        <v>-703.202000</v>
+        <v>-703.202</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>21957.326742</v>
+        <v>21957.326742000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>6.099257</v>
+        <v>6.0992569999999997</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1471.330000</v>
+        <v>1471.33</v>
       </c>
       <c r="CA24" s="1">
-        <v>-919.871000</v>
+        <v>-919.87099999999998</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>21970.450419</v>
+        <v>21970.450419000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.102903</v>
+        <v>6.1029030000000004</v>
       </c>
       <c r="CE24" s="1">
-        <v>1832.270000</v>
+        <v>1832.27</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1432.520000</v>
+        <v>-1432.52</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>21796.564915</v>
+        <v>21796.564914999999</v>
       </c>
       <c r="B25" s="1">
-        <v>6.054601</v>
+        <v>6.0546009999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>896.072000</v>
+        <v>896.072</v>
       </c>
       <c r="D25" s="1">
-        <v>-200.623000</v>
+        <v>-200.62299999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>21807.030997</v>
+        <v>21807.030997000002</v>
       </c>
       <c r="G25" s="1">
-        <v>6.057509</v>
+        <v>6.0575089999999996</v>
       </c>
       <c r="H25" s="1">
-        <v>913.983000</v>
+        <v>913.98299999999995</v>
       </c>
       <c r="I25" s="1">
-        <v>-169.179000</v>
+        <v>-169.179</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>21817.872057</v>
       </c>
       <c r="L25" s="1">
-        <v>6.060520</v>
+        <v>6.0605200000000004</v>
       </c>
       <c r="M25" s="1">
-        <v>937.327000</v>
+        <v>937.327</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.044000</v>
+        <v>-120.044</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>21828.452249</v>
+        <v>21828.452249000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.063459</v>
+        <v>6.0634589999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>943.989000</v>
+        <v>943.98900000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.774000</v>
+        <v>-103.774</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>21838.887052</v>
+        <v>21838.887051999998</v>
       </c>
       <c r="V25" s="1">
-        <v>6.066358</v>
+        <v>6.0663580000000001</v>
       </c>
       <c r="W25" s="1">
-        <v>950.534000</v>
+        <v>950.53399999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.707500</v>
+        <v>-88.707499999999996</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>21849.375950</v>
+        <v>21849.375950000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.069271</v>
+        <v>6.0692709999999996</v>
       </c>
       <c r="AB25" s="1">
-        <v>957.749000</v>
+        <v>957.74900000000002</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.125600</v>
+        <v>-77.125600000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>21859.687312</v>
+        <v>21859.687311999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>6.072135</v>
+        <v>6.0721350000000003</v>
       </c>
       <c r="AG25" s="1">
-        <v>962.313000</v>
+        <v>962.31299999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.063400</v>
+        <v>-75.063400000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>21870.873058</v>
+        <v>21870.873058000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>6.075243</v>
+        <v>6.0752430000000004</v>
       </c>
       <c r="AL25" s="1">
-        <v>969.570000</v>
+        <v>969.57</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.929200</v>
+        <v>-79.929199999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>21881.814306</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.078282</v>
+        <v>6.0782819999999997</v>
       </c>
       <c r="AQ25" s="1">
-        <v>977.649000</v>
+        <v>977.649</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.695300</v>
+        <v>-91.695300000000003</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>21893.004083</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.081390</v>
+        <v>6.0813899999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>987.631000</v>
+        <v>987.63099999999997</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.568000</v>
+        <v>-109.568</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>21904.006309</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.084446</v>
+        <v>6.0844459999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>995.988000</v>
+        <v>995.98800000000006</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.361000</v>
+        <v>-125.361</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>21914.665831</v>
+        <v>21914.665830999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.087407</v>
+        <v>6.0874069999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1035.080000</v>
+        <v>1035.08</v>
       </c>
       <c r="BG25" s="1">
-        <v>-197.973000</v>
+        <v>-197.97300000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>21924.968761</v>
       </c>
       <c r="BJ25" s="1">
-        <v>6.090269</v>
+        <v>6.0902690000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1102.430000</v>
+        <v>1102.43</v>
       </c>
       <c r="BL25" s="1">
-        <v>-315.474000</v>
+        <v>-315.47399999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>21936.084571</v>
+        <v>21936.084570999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.093357</v>
+        <v>6.0933570000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1211.590000</v>
+        <v>1211.5899999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-500.390000</v>
+        <v>-500.39</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>21946.722269</v>
+        <v>21946.722269000002</v>
       </c>
       <c r="BT25" s="1">
-        <v>6.096312</v>
+        <v>6.0963120000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1333.900000</v>
+        <v>1333.9</v>
       </c>
       <c r="BV25" s="1">
-        <v>-703.220000</v>
+        <v>-703.22</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>21957.783053</v>
+        <v>21957.783052999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>6.099384</v>
+        <v>6.0993839999999997</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1471.270000</v>
+        <v>1471.27</v>
       </c>
       <c r="CA25" s="1">
-        <v>-919.804000</v>
+        <v>-919.80399999999997</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>21970.967231</v>
+        <v>21970.967230999999</v>
       </c>
       <c r="CD25" s="1">
         <v>6.103046</v>
       </c>
       <c r="CE25" s="1">
-        <v>1832.280000</v>
+        <v>1832.28</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1433.150000</v>
+        <v>-1433.15</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>21796.907155</v>
+        <v>21796.907155000001</v>
       </c>
       <c r="B26" s="1">
-        <v>6.054696</v>
+        <v>6.0546959999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>896.301000</v>
+        <v>896.30100000000004</v>
       </c>
       <c r="D26" s="1">
-        <v>-200.529000</v>
+        <v>-200.529</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>21807.719444</v>
+        <v>21807.719443999998</v>
       </c>
       <c r="G26" s="1">
-        <v>6.057700</v>
+        <v>6.0576999999999996</v>
       </c>
       <c r="H26" s="1">
-        <v>914.172000</v>
+        <v>914.17200000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-169.420000</v>
+        <v>-169.42</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>21818.218790</v>
+        <v>21818.218789999999</v>
       </c>
       <c r="L26" s="1">
-        <v>6.060616</v>
+        <v>6.0606159999999996</v>
       </c>
       <c r="M26" s="1">
-        <v>937.097000</v>
+        <v>937.09699999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.177000</v>
+        <v>-120.17700000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>21828.797928</v>
@@ -6694,193 +7110,193 @@
         <v>6.063555</v>
       </c>
       <c r="R26" s="1">
-        <v>944.010000</v>
+        <v>944.01</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.769000</v>
+        <v>-103.76900000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>21839.230778</v>
+        <v>21839.230778000001</v>
       </c>
       <c r="V26" s="1">
-        <v>6.066453</v>
+        <v>6.0664530000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>950.571000</v>
+        <v>950.57100000000003</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.681000</v>
+        <v>-88.680999999999997</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>21849.814909</v>
+        <v>21849.814909000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.069393</v>
+        <v>6.0693929999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>957.672000</v>
+        <v>957.67200000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.120800</v>
+        <v>-77.120800000000003</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>21860.329600</v>
+        <v>21860.329600000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>6.072314</v>
+        <v>6.0723140000000004</v>
       </c>
       <c r="AG26" s="1">
-        <v>962.295000</v>
+        <v>962.29499999999996</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.015000</v>
+        <v>-75.015000000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>21871.257456</v>
+        <v>21871.257455999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.075349</v>
+        <v>6.0753490000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>969.558000</v>
+        <v>969.55799999999999</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.907300</v>
+        <v>-79.907300000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>21882.263219</v>
       </c>
       <c r="AP26" s="1">
-        <v>6.078406</v>
+        <v>6.0784060000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>977.656000</v>
+        <v>977.65599999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.704800</v>
+        <v>-91.704800000000006</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>21893.366243</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.081491</v>
+        <v>6.0814909999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>987.644000</v>
+        <v>987.64400000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.567000</v>
+        <v>-109.56699999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>21904.366406</v>
+        <v>21904.366406000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.084546</v>
+        <v>6.0845459999999996</v>
       </c>
       <c r="BA26" s="1">
-        <v>995.993000</v>
+        <v>995.99300000000005</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.370000</v>
+        <v>-125.37</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>21915.029895</v>
       </c>
       <c r="BE26" s="1">
-        <v>6.087508</v>
+        <v>6.0875079999999997</v>
       </c>
       <c r="BF26" s="1">
-        <v>1035.060000</v>
+        <v>1035.06</v>
       </c>
       <c r="BG26" s="1">
-        <v>-197.964000</v>
+        <v>-197.964</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>21925.383881</v>
+        <v>21925.383881000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.090384</v>
+        <v>6.0903840000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1102.460000</v>
+        <v>1102.46</v>
       </c>
       <c r="BL26" s="1">
-        <v>-315.471000</v>
+        <v>-315.471</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>21936.535930</v>
+        <v>21936.535929999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.093482</v>
+        <v>6.0934819999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1211.580000</v>
+        <v>1211.58</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-500.372000</v>
+        <v>-500.37200000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>21947.133949</v>
+        <v>21947.133948999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.096426</v>
+        <v>6.0964260000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1333.900000</v>
+        <v>1333.9</v>
       </c>
       <c r="BV26" s="1">
-        <v>-703.133000</v>
+        <v>-703.13300000000004</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>21958.232926</v>
+        <v>21958.232926000001</v>
       </c>
       <c r="BY26" s="1">
-        <v>6.099509</v>
+        <v>6.0995090000000003</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1471.470000</v>
+        <v>1471.47</v>
       </c>
       <c r="CA26" s="1">
-        <v>-919.797000</v>
+        <v>-919.79700000000003</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>21971.517773</v>
@@ -6889,15 +7305,16 @@
         <v>6.103199</v>
       </c>
       <c r="CE26" s="1">
-        <v>1832.290000</v>
+        <v>1832.29</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1433.840000</v>
+        <v>-1433.84</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>